--- a/Simulation results.xlsx
+++ b/Simulation results.xlsx
@@ -8,21 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CTTC\Scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C342A172-4151-441A-94CE-20016975F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDBA35-85ED-4565-8294-89BDBEA36C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="20403" windowHeight="13082" activeTab="5" xr2:uid="{D55AE52E-6FF1-4BFC-876E-9DA2CC08ED45}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="20403" windowHeight="13082" activeTab="1" xr2:uid="{D55AE52E-6FF1-4BFC-876E-9DA2CC08ED45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="traffic" sheetId="1" r:id="rId1"/>
+    <sheet name="inst" sheetId="2" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" r:id="rId3"/>
     <sheet name="Automative" sheetId="5" r:id="rId4"/>
     <sheet name="Bird Eye" sheetId="7" r:id="rId5"/>
     <sheet name="two_days" sheetId="9" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>4:00-6:00</t>
   </si>
@@ -117,6 +114,15 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:f>traffic!$B$4:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -255,7 +261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>traffic!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -319,7 +325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:f>traffic!$B$4:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -363,7 +369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:f>traffic!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1343,7 +1349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
+              <c:f>inst!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1366,7 +1372,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$103</c:f>
+              <c:f>inst!$E$3:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1688,7 +1694,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$2</c:f>
+              <c:f>inst!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1717,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$103</c:f>
+              <c:f>inst!$F$3:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2033,7 +2039,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
+              <c:f>inst!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2056,7 +2062,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$103</c:f>
+              <c:f>inst!$G$3:$G$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2566,7 +2572,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$2</c:f>
+              <c:f>inst!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2589,7 +2595,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$103</c:f>
+              <c:f>inst!$J$3:$J$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2911,7 +2917,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$2</c:f>
+              <c:f>inst!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2934,7 +2940,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$103</c:f>
+              <c:f>inst!$K$3:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3256,7 +3262,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$2</c:f>
+              <c:f>inst!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3279,7 +3285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$103</c:f>
+              <c:f>inst!$L$3:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3789,7 +3795,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$2</c:f>
+              <c:f>inst!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3812,7 +3818,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$3:$L$103</c:f>
+              <c:f>inst!$O$3:$O$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4134,7 +4140,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$2</c:f>
+              <c:f>inst!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4157,7 +4163,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$3:$M$103</c:f>
+              <c:f>inst!$P$3:$P$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4479,7 +4485,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$2</c:f>
+              <c:f>inst!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4502,7 +4508,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$N$3:$N$103</c:f>
+              <c:f>inst!$Q$3:$Q$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5012,7 +5018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$H$3</c:f>
+              <c:f>cost!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5035,7 +5041,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$4:$H$70</c:f>
+              <c:f>cost!$H$4:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -5255,7 +5261,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$I$3</c:f>
+              <c:f>cost!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5278,7 +5284,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$I$4:$I$70</c:f>
+              <c:f>cost!$I$4:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -5498,7 +5504,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$J$3</c:f>
+              <c:f>cost!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5521,7 +5527,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$J$4:$J$70</c:f>
+              <c:f>cost!$J$4:$J$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -5930,7 +5936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$3</c:f>
+              <c:f>cost!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5953,7 +5959,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$4:$E$70</c:f>
+              <c:f>cost!$E$4:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -6173,7 +6179,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$3</c:f>
+              <c:f>cost!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6196,7 +6202,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$4:$F$70</c:f>
+              <c:f>cost!$F$4:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -6416,7 +6422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$3</c:f>
+              <c:f>cost!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6439,7 +6445,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$4:$G$70</c:f>
+              <c:f>cost!$G$4:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -6848,7 +6854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$3</c:f>
+              <c:f>cost!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6871,7 +6877,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$70</c:f>
+              <c:f>cost!$B$4:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -7091,7 +7097,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$3</c:f>
+              <c:f>cost!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7114,7 +7120,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$70</c:f>
+              <c:f>cost!$C$4:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -7334,7 +7340,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$3</c:f>
+              <c:f>cost!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7357,7 +7363,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$4:$D$70</c:f>
+              <c:f>cost!$D$4:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -15523,13 +15529,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>145473</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>175161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>394854</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>157348</xdr:rowOff>
@@ -15559,13 +15565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>174831</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>33646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>405741</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>5937</xdr:rowOff>
@@ -15595,13 +15601,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>240805</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>178788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>455221</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>65972</xdr:rowOff>
@@ -15870,233 +15876,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="base"/>
-      <sheetName val="check_empty&gt;0"/>
-      <sheetName val="deque_no_term"/>
-      <sheetName val="scale_up"/>
-      <sheetName val="scale_up_val"/>
-      <sheetName val="two_days"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>small_inst</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>small_sla</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>small_total</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>big_inst</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>big_sla</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>big_total</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>aiml_inst</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>aiml_sla</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>aiml_total</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>41840.703350985299</v>
-          </cell>
-          <cell r="C4">
-            <v>0.14059895715616899</v>
-          </cell>
-          <cell r="D4">
-            <v>41840.843949942457</v>
-          </cell>
-          <cell r="E4">
-            <v>104601.758377463</v>
-          </cell>
-          <cell r="F4">
-            <v>2.93098878501041E-15</v>
-          </cell>
-          <cell r="G4">
-            <v>104601.758377463</v>
-          </cell>
-          <cell r="H4">
-            <v>40932.424817293097</v>
-          </cell>
-          <cell r="I4">
-            <v>0.14059895715616899</v>
-          </cell>
-          <cell r="J4">
-            <v>40932.565416250254</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>42535.960437681402</v>
-          </cell>
-          <cell r="C5">
-            <v>63.403901104190297</v>
-          </cell>
-          <cell r="D5">
-            <v>42599.364338785592</v>
-          </cell>
-          <cell r="E5">
-            <v>105348.121896774</v>
-          </cell>
-          <cell r="F5">
-            <v>5.3856054056834199E-3</v>
-          </cell>
-          <cell r="G5">
-            <v>105348.1272823794</v>
-          </cell>
-          <cell r="H5">
-            <v>42946.307093827098</v>
-          </cell>
-          <cell r="I5">
-            <v>63.141377982439302</v>
-          </cell>
-          <cell r="J5">
-            <v>43009.448471809534</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>46136.281401896398</v>
-          </cell>
-          <cell r="C6">
-            <v>5770.5263313483501</v>
-          </cell>
-          <cell r="D6">
-            <v>51906.80773324475</v>
-          </cell>
-          <cell r="E6">
-            <v>105740.420310131</v>
-          </cell>
-          <cell r="F6">
-            <v>0.50168828222237305</v>
-          </cell>
-          <cell r="G6">
-            <v>105740.92199841322</v>
-          </cell>
-          <cell r="H6">
-            <v>55078.029300457303</v>
-          </cell>
-          <cell r="I6">
-            <v>1534.7589696033699</v>
-          </cell>
-          <cell r="J6">
-            <v>56612.788270060671</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>58298.504933681397</v>
-          </cell>
-          <cell r="C7">
-            <v>40484.172963921403</v>
-          </cell>
-          <cell r="D7">
-            <v>98782.6778976028</v>
-          </cell>
-          <cell r="E7">
-            <v>105818.946827231</v>
-          </cell>
-          <cell r="F7">
-            <v>5.1308439917590203</v>
-          </cell>
-          <cell r="G7">
-            <v>105824.07767122277</v>
-          </cell>
-          <cell r="H7">
-            <v>74997.224943534704</v>
-          </cell>
-          <cell r="I7">
-            <v>3779.5698380168301</v>
-          </cell>
-          <cell r="J7">
-            <v>78776.794781551536</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>75735.421572469699</v>
-          </cell>
-          <cell r="C8">
-            <v>109590.588823948</v>
-          </cell>
-          <cell r="D8">
-            <v>185326.0103964177</v>
-          </cell>
-          <cell r="E8">
-            <v>106921.77778039699</v>
-          </cell>
-          <cell r="F8">
-            <v>144.96527411801799</v>
-          </cell>
-          <cell r="G8">
-            <v>107066.74305451501</v>
-          </cell>
-          <cell r="H8">
-            <v>87916.483782396695</v>
-          </cell>
-          <cell r="I8">
-            <v>7136.0476441569699</v>
-          </cell>
-          <cell r="J8">
-            <v>95052.531426553673</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>88192.214309615098</v>
-          </cell>
-          <cell r="C9">
-            <v>182890.43924170101</v>
-          </cell>
-          <cell r="D9">
-            <v>271082.65355131612</v>
-          </cell>
-          <cell r="E9">
-            <v>109414.362888558</v>
-          </cell>
-          <cell r="F9">
-            <v>1243.8926463437299</v>
-          </cell>
-          <cell r="G9">
-            <v>110658.25553490172</v>
-          </cell>
-          <cell r="H9">
-            <v>97435.704161229602</v>
-          </cell>
-          <cell r="I9">
-            <v>13230.121459751699</v>
-          </cell>
-          <cell r="J9">
-            <v>110665.8256209813</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16513,4512 +16292,5423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BB8015-07B3-4250-B36E-38E62CC9F317}">
-  <dimension ref="B2:O133"/>
+  <dimension ref="A2:R133"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="3.58203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.4140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="3" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="3.58203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <f>E3/10</f>
+      <c r="G3" s="1">
+        <f>H3/10</f>
         <v>2.4182600000000002E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>0.24182600000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1">
-        <f>J3/10</f>
+      <c r="L3" s="1">
+        <f>M3/10</f>
         <v>2.4182600000000002E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
         <v>0.24182600000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="1">
-        <f>O3/10</f>
+      <c r="Q3" s="1">
+        <f>R3/10</f>
         <v>2.4182600000000002E-2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
         <v>0.24182600000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
       <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24.000000000000796</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D67" si="0">E4/10</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G67" si="0">H4/10</f>
         <v>0.24320650000000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>2.4320650000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I67" si="1">J4/10</f>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L67" si="1">M4/10</f>
         <v>5.8434799999999995E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>0.58434799999999998</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N67" si="2">O4/10</f>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q67" si="2">R4/10</f>
         <v>0.24320650000000002</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1">
         <v>2.4320650000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>48.000000000001592</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0.2624707</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>2.6247069999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>0.2624707</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>2.6247069999999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>0.2624707</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>2.6247069999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
       <c r="B6" s="1">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.999999999999091</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>5.5055900000000005E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>0.55055900000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>5.5055900000000005E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>0.55055900000000002</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>5.5055900000000005E-2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>0.55055900000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
       <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0.11730750000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>1.1730750000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>0.11730750000000001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>1.1730750000000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>0.11730750000000001</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>1.1730750000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
       <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0.2067425</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>2.0674250000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>0.64105570000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>6.4105569999999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>0.2067425</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>2.0674250000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
       <c r="B9" s="1">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24.000000000001364</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.1172261</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>1.172261</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>0.1172261</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <v>1.172261</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>0.1172261</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>1.172261</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
       <c r="B10" s="1">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>47.999999999999091</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0.20017870000000001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>2.0017870000000002</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>0.20017870000000001</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10" s="1">
         <v>2.0017870000000002</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="2"/>
         <v>0.20017870000000001</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10" s="1">
         <v>2.0017870000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
       <c r="B11" s="1">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11.999999999999545</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0.41978179999999998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11" s="1">
         <v>4.1978179999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>5.5515300000000004E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11" s="1">
         <v>0.55515300000000001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>0.41978179999999998</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>4.1978179999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
       <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36.000000000000455</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>0.96000130000000006</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12" s="1">
         <v>9.6000130000000006</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>0.1469625</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <v>1.469625</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>0.96000130000000006</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12" s="1">
         <v>9.6000130000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
       <c r="B13" s="1">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.41864869999999998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>4.1864869999999996</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="1"/>
         <v>0.12433760000000001</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>1.243376</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13" s="1">
         <v>2</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>0.41864869999999998</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13" s="1">
         <v>4.1864869999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
       <c r="B14" s="1">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23.999999999998636</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>0.59544550000000007</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>5.9544550000000003</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>3.7027199999999996E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>0.37027199999999999</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>2</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="2"/>
         <v>0.59544550000000007</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14" s="1">
         <v>5.9544550000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
       <c r="B15" s="1">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1">
+        <v>47.999999999999545</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0.8001007</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>8.0010069999999995</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="1"/>
         <v>5.5245699999999995E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15" s="1">
         <v>0.55245699999999998</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="2"/>
         <v>0.8001007</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15" s="1">
         <v>8.0010069999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
       <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12.000000000000398</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.5089939</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>5.0899390000000002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
         <v>0.5152679</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>5.152679</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>0.5089939</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16" s="1">
         <v>5.0899390000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
       <c r="B17" s="1">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36.000000000001137</v>
+      </c>
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>1.0107138</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17" s="1">
         <v>10.107138000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>4.8248400000000004E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="M17" s="1">
         <v>0.48248400000000002</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <f t="shared" si="2"/>
         <v>1.0107138</v>
       </c>
-      <c r="O17" s="1">
+      <c r="R17" s="1">
         <v>10.107138000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
       <c r="B18" s="1">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>1.2050240000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="H18" s="1">
         <v>12.050240000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>0.12540789999999999</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18" s="1">
         <v>1.2540789999999999</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>2</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>1.2050240000000001</v>
       </c>
-      <c r="O18" s="1">
+      <c r="R18" s="1">
         <v>12.050240000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
       <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23.999999999999545</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>1.6772792999999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="H19" s="1">
         <v>16.772793</v>
       </c>
-      <c r="G19" s="1">
+      <c r="J19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="1">
         <f t="shared" si="1"/>
         <v>5.59944E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="M19" s="1">
         <v>0.559944</v>
       </c>
-      <c r="L19" s="1">
+      <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="2"/>
         <v>1.6772792999999999</v>
       </c>
-      <c r="O19" s="1">
+      <c r="R19" s="1">
         <v>16.772793</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
       <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>48.000000000000227</v>
+      </c>
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>1.5677449999999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20" s="1">
         <v>15.67745</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>0.48474230000000001</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>4.847423</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>2</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" si="2"/>
         <v>1.5677449999999999</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20" s="1">
         <v>15.67745</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
       <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12.000000000000909</v>
+      </c>
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>1.9120455000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21" s="1">
         <v>19.120455</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="1"/>
         <v>4.2530899999999996E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>0.42530899999999999</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="1">
         <v>2</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>1.9120455000000001</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21" s="1">
         <v>19.120455</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
       <c r="B22" s="1">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36.000000000001819</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>2.7088633999999998</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22" s="1">
         <v>27.088633999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
         <v>3</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="1"/>
         <v>2.1393499999999999E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22" s="1">
         <v>0.21393499999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="1">
         <v>2</v>
       </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>2.7088633999999998</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22" s="1">
         <v>27.088633999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
       <c r="B23" s="1">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>3.2950775000000001</v>
       </c>
-      <c r="E23" s="1">
+      <c r="H23" s="1">
         <v>32.950775</v>
       </c>
-      <c r="G23" s="1">
+      <c r="J23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
         <v>3</v>
       </c>
-      <c r="I23" s="1">
+      <c r="L23" s="1">
         <f t="shared" si="1"/>
         <v>4.2192800000000003E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="M23" s="1">
         <v>0.42192800000000003</v>
       </c>
-      <c r="L23" s="1">
+      <c r="O23" s="1">
         <v>2</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="2"/>
         <v>3.2950775000000001</v>
       </c>
-      <c r="O23" s="1">
+      <c r="R23" s="1">
         <v>32.950775</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+        <v>23.99999999999693</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>3.5031148999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="H24" s="1">
         <v>35.031148999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="J24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="L24" s="1">
         <f t="shared" si="1"/>
         <v>0.1455449</v>
       </c>
-      <c r="J24" s="1">
+      <c r="M24" s="1">
         <v>1.455449</v>
       </c>
-      <c r="L24" s="1">
+      <c r="O24" s="1">
         <v>2</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="2"/>
         <v>3.5031148999999999</v>
       </c>
-      <c r="O24" s="1">
+      <c r="R24" s="1">
         <v>35.031148999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
       <c r="B25" s="1">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>47.999999999997726</v>
+      </c>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>4.4319968999999997</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>44.319969</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
         <v>5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
         <v>3</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <f t="shared" si="1"/>
         <v>0.1142196</v>
       </c>
-      <c r="J25" s="1">
+      <c r="M25" s="1">
         <v>1.142196</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O25" s="1">
         <v>5</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="2"/>
         <v>3.1829201999999999</v>
       </c>
-      <c r="O25" s="1">
+      <c r="R25" s="1">
         <v>31.829201999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
       <c r="B26" s="1">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11.999999999998408</v>
+      </c>
+      <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>4.4572918999999995</v>
       </c>
-      <c r="E26" s="1">
+      <c r="H26" s="1">
         <v>44.572918999999999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="J26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="1"/>
         <v>4.25373E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="M26" s="1">
         <v>0.425373</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O26" s="1">
         <v>5</v>
       </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="2"/>
         <v>2.7235664000000002</v>
       </c>
-      <c r="O26" s="1">
+      <c r="R26" s="1">
         <v>27.235664</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
       <c r="B27" s="1">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>35.999999999999091</v>
+      </c>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>4.8923888</v>
       </c>
-      <c r="E27" s="1">
+      <c r="H27" s="1">
         <v>48.923887999999998</v>
       </c>
-      <c r="G27" s="1">
+      <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="1"/>
         <v>0.19913240000000001</v>
       </c>
-      <c r="J27" s="1">
+      <c r="M27" s="1">
         <v>1.9913240000000001</v>
       </c>
-      <c r="L27" s="1">
+      <c r="O27" s="1">
         <v>5</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="2"/>
         <v>2.6520081000000002</v>
       </c>
-      <c r="O27" s="1">
+      <c r="R27" s="1">
         <v>26.520081000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
       <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>5.3963993000000006</v>
       </c>
-      <c r="E28" s="1">
+      <c r="H28" s="1">
         <v>53.963993000000002</v>
       </c>
-      <c r="G28" s="1">
+      <c r="J28" s="1">
         <v>5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="I28" s="1">
+      <c r="L28" s="1">
         <f t="shared" si="1"/>
         <v>9.8544999999999987E-3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="M28" s="1">
         <v>9.8544999999999994E-2</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O28" s="1">
         <v>5</v>
       </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
         <f t="shared" si="2"/>
         <v>1.5796005</v>
       </c>
-      <c r="O28" s="1">
+      <c r="R28" s="1">
         <v>15.796004999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
       <c r="B29" s="1">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>24.000000000000796</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>5.7782418999999994</v>
       </c>
-      <c r="E29" s="1">
+      <c r="H29" s="1">
         <v>57.782418999999997</v>
       </c>
-      <c r="G29" s="1">
+      <c r="J29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
         <v>4</v>
       </c>
-      <c r="I29" s="1">
+      <c r="L29" s="1">
         <f t="shared" si="1"/>
         <v>9.9537500000000001E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="M29" s="1">
         <v>0.99537500000000001</v>
       </c>
-      <c r="L29" s="1">
+      <c r="O29" s="1">
         <v>5</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
         <f t="shared" si="2"/>
         <v>0.90350269999999999</v>
       </c>
-      <c r="O29" s="1">
+      <c r="R29" s="1">
         <v>9.0350269999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
       <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>48.000000000001592</v>
+      </c>
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>6.1086717000000004</v>
       </c>
-      <c r="E30" s="1">
+      <c r="H30" s="1">
         <v>61.086717</v>
       </c>
-      <c r="G30" s="1">
+      <c r="J30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="1"/>
         <v>0.18203649999999999</v>
       </c>
-      <c r="J30" s="1">
+      <c r="M30" s="1">
         <v>1.820365</v>
       </c>
-      <c r="L30" s="1">
+      <c r="O30" s="1">
         <v>5</v>
       </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
         <f t="shared" si="2"/>
         <v>0.196571</v>
       </c>
-      <c r="O30" s="1">
+      <c r="R30" s="1">
         <v>1.9657100000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
       <c r="B31" s="1">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12.000000000002274</v>
+      </c>
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>6.7837584000000009</v>
       </c>
-      <c r="E31" s="1">
+      <c r="H31" s="1">
         <v>67.837584000000007</v>
       </c>
-      <c r="G31" s="1">
+      <c r="J31" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
         <v>3</v>
       </c>
-      <c r="I31" s="1">
+      <c r="L31" s="1">
         <f t="shared" si="1"/>
         <v>0.1736859</v>
       </c>
-      <c r="J31" s="1">
+      <c r="M31" s="1">
         <v>1.7368589999999999</v>
       </c>
-      <c r="L31" s="1">
+      <c r="O31" s="1">
         <v>2</v>
       </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
         <f t="shared" si="2"/>
         <v>0.33900549999999996</v>
       </c>
-      <c r="O31" s="1">
+      <c r="R31" s="1">
         <v>3.3900549999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
       <c r="B32" s="1">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1">
+        <v>36.000000000003183</v>
+      </c>
+      <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>6.7116581999999996</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H32" s="1">
         <v>67.116581999999994</v>
       </c>
-      <c r="G32" s="1">
+      <c r="J32" s="1">
         <v>5</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
         <v>4</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L32" s="1">
         <f t="shared" si="1"/>
         <v>0.1442976</v>
       </c>
-      <c r="J32" s="1">
+      <c r="M32" s="1">
         <v>1.442976</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <v>2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="P32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="2"/>
         <v>0.1442976</v>
       </c>
-      <c r="O32" s="1">
+      <c r="R32" s="1">
         <v>1.442976</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
       <c r="B33" s="1">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-2.5011104298755527E-12</v>
+      </c>
+      <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>7.1142950000000003</v>
       </c>
-      <c r="E33" s="1">
+      <c r="H33" s="1">
         <v>71.142949999999999</v>
       </c>
-      <c r="G33" s="1">
+      <c r="J33" s="1">
         <v>5</v>
       </c>
-      <c r="H33" s="1">
+      <c r="K33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="L33" s="1">
         <f t="shared" si="1"/>
         <v>2.6231399999999998E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="M33" s="1">
         <v>0.26231399999999999</v>
       </c>
-      <c r="L33" s="1">
+      <c r="O33" s="1">
         <v>2</v>
       </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
         <f t="shared" si="2"/>
         <v>0.2485058</v>
       </c>
-      <c r="O33" s="1">
+      <c r="R33" s="1">
         <v>2.485058</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
       <c r="B34" s="1">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1">
+        <v>23.999999999998181</v>
+      </c>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>7.5974118000000006</v>
       </c>
-      <c r="E34" s="1">
+      <c r="H34" s="1">
         <v>75.974118000000004</v>
       </c>
-      <c r="G34" s="1">
+      <c r="J34" s="1">
         <v>5</v>
       </c>
-      <c r="H34" s="1">
+      <c r="K34" s="1">
         <v>4</v>
       </c>
-      <c r="I34" s="1">
+      <c r="L34" s="1">
         <f t="shared" si="1"/>
         <v>9.2840900000000004E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="M34" s="1">
         <v>0.92840900000000004</v>
       </c>
-      <c r="L34" s="1">
+      <c r="O34" s="1">
         <v>2</v>
       </c>
-      <c r="M34" s="1">
+      <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="N34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="2"/>
         <v>9.2840900000000004E-2</v>
       </c>
-      <c r="O34" s="1">
+      <c r="R34" s="1">
         <v>0.92840900000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
       <c r="B35" s="1">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>47.999999999999091</v>
+      </c>
+      <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>8.1681132999999999</v>
       </c>
-      <c r="E35" s="1">
+      <c r="H35" s="1">
         <v>81.681133000000003</v>
       </c>
-      <c r="G35" s="1">
+      <c r="J35" s="1">
         <v>5</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="1"/>
         <v>0.29786560000000001</v>
       </c>
-      <c r="J35" s="1">
+      <c r="M35" s="1">
         <v>2.978656</v>
       </c>
-      <c r="L35" s="1">
+      <c r="O35" s="1">
         <v>2</v>
       </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
         <f t="shared" si="2"/>
         <v>0.5017973</v>
       </c>
-      <c r="O35" s="1">
+      <c r="R35" s="1">
         <v>5.0179729999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
       <c r="B36" s="1">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11.999999999999545</v>
+      </c>
+      <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>8.6183924000000012</v>
       </c>
-      <c r="E36" s="1">
+      <c r="H36" s="1">
         <v>86.183924000000005</v>
       </c>
-      <c r="G36" s="1">
+      <c r="J36" s="1">
         <v>5</v>
       </c>
-      <c r="H36" s="1">
+      <c r="K36" s="1">
         <v>2</v>
       </c>
-      <c r="I36" s="1">
+      <c r="L36" s="1">
         <f t="shared" si="1"/>
         <v>0.15073</v>
       </c>
-      <c r="J36" s="1">
+      <c r="M36" s="1">
         <v>1.5073000000000001</v>
       </c>
-      <c r="L36" s="1">
+      <c r="O36" s="1">
         <v>2</v>
       </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
         <f t="shared" si="2"/>
         <v>1.0943014</v>
       </c>
-      <c r="O36" s="1">
+      <c r="R36" s="1">
         <v>10.943014</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
       <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36.000000000000455</v>
+      </c>
+      <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>8.7186871000000004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="H37" s="1">
         <v>87.186870999999996</v>
       </c>
-      <c r="G37" s="1">
+      <c r="J37" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="K37" s="1">
         <v>4</v>
       </c>
-      <c r="I37" s="1">
+      <c r="L37" s="1">
         <f t="shared" si="1"/>
         <v>2.5089499999999997E-2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="M37" s="1">
         <v>0.25089499999999998</v>
       </c>
-      <c r="L37" s="1">
+      <c r="O37" s="1">
         <v>2</v>
       </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
         <f t="shared" si="2"/>
         <v>1.4020945</v>
       </c>
-      <c r="O37" s="1">
+      <c r="R37" s="1">
         <v>14.020944999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
       <c r="B38" s="1">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>8.7928753999999998</v>
       </c>
-      <c r="E38" s="1">
+      <c r="H38" s="1">
         <v>87.928753999999998</v>
       </c>
-      <c r="G38" s="1">
+      <c r="J38" s="1">
         <v>5</v>
       </c>
-      <c r="H38" s="1">
+      <c r="K38" s="1">
         <v>4</v>
       </c>
-      <c r="I38" s="1">
+      <c r="L38" s="1">
         <f t="shared" si="1"/>
         <v>0.3595701</v>
       </c>
-      <c r="J38" s="1">
+      <c r="M38" s="1">
         <v>3.595701</v>
       </c>
-      <c r="L38" s="1">
+      <c r="O38" s="1">
         <v>2</v>
       </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
         <f t="shared" si="2"/>
         <v>0.97489760000000003</v>
       </c>
-      <c r="O38" s="1">
+      <c r="R38" s="1">
         <v>9.7489760000000008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>12</v>
+      </c>
       <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>24.000000000001819</v>
+      </c>
+      <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>9.1938299000000008</v>
       </c>
-      <c r="E39" s="1">
+      <c r="H39" s="1">
         <v>91.938299000000001</v>
       </c>
-      <c r="G39" s="1">
+      <c r="J39" s="1">
         <v>5</v>
       </c>
-      <c r="H39" s="1">
+      <c r="K39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="1">
+      <c r="L39" s="1">
         <f t="shared" si="1"/>
         <v>5.2327400000000003E-2</v>
       </c>
-      <c r="J39" s="1">
+      <c r="M39" s="1">
         <v>0.52327400000000002</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>2</v>
       </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
         <f t="shared" si="2"/>
         <v>1.3751818</v>
       </c>
-      <c r="O39" s="1">
+      <c r="R39" s="1">
         <v>13.751818</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
       <c r="B40" s="1">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1">
+        <v>48.000000000002728</v>
+      </c>
+      <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>9.8243577999999996</v>
       </c>
-      <c r="E40" s="1">
+      <c r="H40" s="1">
         <v>98.243577999999999</v>
       </c>
-      <c r="G40" s="1">
+      <c r="J40" s="1">
         <v>5</v>
       </c>
-      <c r="H40" s="1">
+      <c r="K40" s="1">
         <v>4</v>
       </c>
-      <c r="I40" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="1"/>
         <v>0.13449329999999998</v>
       </c>
-      <c r="J40" s="1">
+      <c r="M40" s="1">
         <v>1.3449329999999999</v>
       </c>
-      <c r="L40" s="1">
+      <c r="O40" s="1">
         <v>2</v>
       </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
         <f t="shared" si="2"/>
         <v>0.89377150000000005</v>
       </c>
-      <c r="O40" s="1">
+      <c r="R40" s="1">
         <v>8.9377150000000007</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
       <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11.999999999997158</v>
+      </c>
+      <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>9.7795024000000002</v>
       </c>
-      <c r="E41" s="1">
+      <c r="H41" s="1">
         <v>97.795023999999998</v>
       </c>
-      <c r="G41" s="1">
+      <c r="J41" s="1">
         <v>5</v>
       </c>
-      <c r="H41" s="1">
+      <c r="K41" s="1">
         <v>3</v>
       </c>
-      <c r="I41" s="1">
+      <c r="L41" s="1">
         <f t="shared" si="1"/>
         <v>1.2137000000000001E-3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="M41" s="1">
         <v>1.2137E-2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="O41" s="1">
         <v>2</v>
       </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
         <f t="shared" si="2"/>
         <v>0.63844640000000008</v>
       </c>
-      <c r="O41" s="1">
+      <c r="R41" s="1">
         <v>6.3844640000000004</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
       <c r="B42" s="1">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35.999999999997954</v>
+      </c>
+      <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>9.5475491000000012</v>
       </c>
-      <c r="E42" s="1">
+      <c r="H42" s="1">
         <v>95.475491000000005</v>
       </c>
-      <c r="G42" s="1">
+      <c r="J42" s="1">
         <v>5</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
         <f t="shared" si="1"/>
         <v>0.3977213</v>
       </c>
-      <c r="J42" s="1">
+      <c r="M42" s="1">
         <v>3.9772129999999999</v>
       </c>
-      <c r="L42" s="1">
+      <c r="O42" s="1">
         <v>2</v>
       </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
         <f t="shared" si="2"/>
         <v>0.78011090000000005</v>
       </c>
-      <c r="O42" s="1">
+      <c r="R42" s="1">
         <v>7.8011090000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>13</v>
+      </c>
       <c r="B43" s="1">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>9.1197320000000008</v>
       </c>
-      <c r="E43" s="1">
+      <c r="H43" s="1">
         <v>91.197320000000005</v>
       </c>
-      <c r="G43" s="1">
+      <c r="J43" s="1">
         <v>5</v>
       </c>
-      <c r="H43" s="1">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="1">
+      <c r="L43" s="1">
         <f t="shared" si="1"/>
         <v>0.382442</v>
       </c>
-      <c r="J43" s="1">
+      <c r="M43" s="1">
         <v>3.8244199999999999</v>
       </c>
-      <c r="L43" s="1">
+      <c r="O43" s="1">
         <v>2</v>
       </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
         <f t="shared" si="2"/>
         <v>1.2339724000000001</v>
       </c>
-      <c r="O43" s="1">
+      <c r="R43" s="1">
         <v>12.339724</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>13</v>
+      </c>
       <c r="B44" s="1">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1">
+        <v>23.999999999999545</v>
+      </c>
+      <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>9.4799396999999992</v>
       </c>
-      <c r="E44" s="1">
+      <c r="H44" s="1">
         <v>94.799396999999999</v>
       </c>
-      <c r="G44" s="1">
+      <c r="J44" s="1">
         <v>5</v>
       </c>
-      <c r="H44" s="1">
+      <c r="K44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="1">
+      <c r="L44" s="1">
         <f t="shared" si="1"/>
         <v>0.2434663</v>
       </c>
-      <c r="J44" s="1">
+      <c r="M44" s="1">
         <v>2.434663</v>
       </c>
-      <c r="L44" s="1">
+      <c r="O44" s="1">
         <v>2</v>
       </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
         <f t="shared" si="2"/>
         <v>1.8638266000000001</v>
       </c>
-      <c r="O44" s="1">
+      <c r="R44" s="1">
         <v>18.638266000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>14</v>
+      </c>
       <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>48.000000000000227</v>
+      </c>
+      <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>10.298460199999999</v>
       </c>
-      <c r="E45" s="1">
+      <c r="H45" s="1">
         <v>102.984602</v>
       </c>
-      <c r="G45" s="1">
+      <c r="J45" s="1">
         <v>5</v>
       </c>
-      <c r="H45" s="1">
+      <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="L45" s="1">
         <f t="shared" si="1"/>
         <v>5.0574300000000003E-2</v>
       </c>
-      <c r="J45" s="1">
+      <c r="M45" s="1">
         <v>0.50574300000000005</v>
       </c>
-      <c r="L45" s="1">
+      <c r="O45" s="1">
         <v>2</v>
       </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
         <f t="shared" si="2"/>
         <v>2.0690767000000001</v>
       </c>
-      <c r="O45" s="1">
+      <c r="R45" s="1">
         <v>20.690767000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
       <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12.000000000000909</v>
+      </c>
+      <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>10.368998000000001</v>
       </c>
-      <c r="E46" s="1">
+      <c r="H46" s="1">
         <v>103.68998000000001</v>
       </c>
-      <c r="G46" s="1">
+      <c r="J46" s="1">
         <v>5</v>
       </c>
-      <c r="H46" s="1">
+      <c r="K46" s="1">
         <v>2</v>
       </c>
-      <c r="I46" s="1">
+      <c r="L46" s="1">
         <f t="shared" si="1"/>
         <v>0.36520649999999999</v>
       </c>
-      <c r="J46" s="1">
+      <c r="M46" s="1">
         <v>3.6520649999999999</v>
       </c>
-      <c r="L46" s="1">
+      <c r="O46" s="1">
         <v>2</v>
       </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
         <f t="shared" si="2"/>
         <v>2.6466091999999999</v>
       </c>
-      <c r="O46" s="1">
+      <c r="R46" s="1">
         <v>26.466092</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>14</v>
+      </c>
       <c r="B47" s="1">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>36.000000000001819</v>
+      </c>
+      <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>9.8809038999999999</v>
       </c>
-      <c r="E47" s="1">
+      <c r="H47" s="1">
         <v>98.809038999999999</v>
       </c>
-      <c r="G47" s="1">
+      <c r="J47" s="1">
         <v>5</v>
       </c>
-      <c r="H47" s="1">
+      <c r="K47" s="1">
         <v>4</v>
       </c>
-      <c r="I47" s="1">
+      <c r="L47" s="1">
         <f t="shared" si="1"/>
         <v>1.40324E-2</v>
       </c>
-      <c r="J47" s="1">
+      <c r="M47" s="1">
         <v>0.140324</v>
       </c>
-      <c r="L47" s="1">
+      <c r="O47" s="1">
         <v>2</v>
       </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
         <f t="shared" si="2"/>
         <v>2.7079089999999999</v>
       </c>
-      <c r="O47" s="1">
+      <c r="R47" s="1">
         <v>27.079090000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>14</v>
+      </c>
       <c r="B48" s="1">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>10.2187365</v>
       </c>
-      <c r="E48" s="1">
+      <c r="H48" s="1">
         <v>102.187365</v>
       </c>
-      <c r="G48" s="1">
+      <c r="J48" s="1">
         <v>5</v>
       </c>
-      <c r="H48" s="1">
+      <c r="K48" s="1">
         <v>3</v>
       </c>
-      <c r="I48" s="1">
+      <c r="L48" s="1">
         <f t="shared" si="1"/>
         <v>9.9332200000000009E-2</v>
       </c>
-      <c r="J48" s="1">
+      <c r="M48" s="1">
         <v>0.99332200000000004</v>
       </c>
-      <c r="L48" s="1">
+      <c r="O48" s="1">
         <v>2</v>
       </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
         <f t="shared" si="2"/>
         <v>2.6207178999999998</v>
       </c>
-      <c r="O48" s="1">
+      <c r="R48" s="1">
         <v>26.207179</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>15</v>
+      </c>
       <c r="B49" s="1">
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
+        <v>23.99999999999693</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>9.8606748999999994</v>
       </c>
-      <c r="E49" s="1">
+      <c r="H49" s="1">
         <v>98.606748999999994</v>
       </c>
-      <c r="G49" s="1">
+      <c r="J49" s="1">
         <v>5</v>
       </c>
-      <c r="H49" s="1">
+      <c r="K49" s="1">
         <v>1</v>
       </c>
-      <c r="I49" s="1">
+      <c r="L49" s="1">
         <f t="shared" si="1"/>
         <v>3.4861999999999997E-2</v>
       </c>
-      <c r="J49" s="1">
+      <c r="M49" s="1">
         <v>0.34861999999999999</v>
       </c>
-      <c r="L49" s="1">
+      <c r="O49" s="1">
         <v>2</v>
       </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
         <f t="shared" si="2"/>
         <v>2.3015374</v>
       </c>
-      <c r="O49" s="1">
+      <c r="R49" s="1">
         <v>23.015374000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
       <c r="B50" s="1">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1">
+        <v>47.999999999997726</v>
+      </c>
+      <c r="E50" s="1">
         <v>2</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>9.8093917000000008</v>
       </c>
-      <c r="E50" s="1">
+      <c r="H50" s="1">
         <v>98.093917000000005</v>
       </c>
-      <c r="G50" s="1">
+      <c r="J50" s="1">
         <v>5</v>
       </c>
-      <c r="H50" s="1">
+      <c r="K50" s="1">
         <v>1</v>
       </c>
-      <c r="I50" s="1">
+      <c r="L50" s="1">
         <f t="shared" si="1"/>
         <v>0.21790150000000003</v>
       </c>
-      <c r="J50" s="1">
+      <c r="M50" s="1">
         <v>2.1790150000000001</v>
       </c>
-      <c r="L50" s="1">
+      <c r="O50" s="1">
         <v>2</v>
       </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
         <f t="shared" si="2"/>
         <v>2.5699633999999998</v>
       </c>
-      <c r="O50" s="1">
+      <c r="R50" s="1">
         <v>25.699634</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>15</v>
+      </c>
       <c r="B51" s="1">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11.999999999998408</v>
+      </c>
+      <c r="E51" s="1">
         <v>2</v>
       </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>9.7470143</v>
       </c>
-      <c r="E51" s="1">
+      <c r="H51" s="1">
         <v>97.470142999999993</v>
       </c>
-      <c r="G51" s="1">
+      <c r="J51" s="1">
         <v>5</v>
       </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" si="1"/>
         <v>4.6409300000000001E-2</v>
       </c>
-      <c r="J51" s="1">
+      <c r="M51" s="1">
         <v>0.46409299999999998</v>
       </c>
-      <c r="L51" s="1">
+      <c r="O51" s="1">
         <v>2</v>
       </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
         <f t="shared" si="2"/>
         <v>2.7638948999999999</v>
       </c>
-      <c r="O51" s="1">
+      <c r="R51" s="1">
         <v>27.638949</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>15</v>
+      </c>
       <c r="B52" s="1">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1">
+        <v>35.999999999999091</v>
+      </c>
+      <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>10.200782100000001</v>
       </c>
-      <c r="E52" s="1">
+      <c r="H52" s="1">
         <v>102.00782100000001</v>
       </c>
-      <c r="G52" s="1">
+      <c r="J52" s="1">
         <v>5</v>
       </c>
-      <c r="H52" s="1">
+      <c r="K52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="1">
+      <c r="L52" s="1">
         <f t="shared" si="1"/>
         <v>0.41249039999999998</v>
       </c>
-      <c r="J52" s="1">
+      <c r="M52" s="1">
         <v>4.1249039999999999</v>
       </c>
-      <c r="L52" s="1">
+      <c r="O52" s="1">
         <v>2</v>
       </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
         <f t="shared" si="2"/>
         <v>2.3932414999999998</v>
       </c>
-      <c r="O52" s="1">
+      <c r="R52" s="1">
         <v>23.932414999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>16</v>
+      </c>
       <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>10.666649899999999</v>
       </c>
-      <c r="E53" s="1">
+      <c r="H53" s="1">
         <v>106.666499</v>
       </c>
-      <c r="G53" s="1">
+      <c r="J53" s="1">
         <v>5</v>
       </c>
-      <c r="H53" s="1">
+      <c r="K53" s="1">
         <v>3</v>
       </c>
-      <c r="I53" s="1">
+      <c r="L53" s="1">
         <f t="shared" si="1"/>
         <v>0.32749820000000002</v>
       </c>
-      <c r="J53" s="1">
+      <c r="M53" s="1">
         <v>3.2749820000000001</v>
       </c>
-      <c r="L53" s="1">
+      <c r="O53" s="1">
         <v>2</v>
       </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1">
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
         <f t="shared" si="2"/>
         <v>2.7492418000000001</v>
       </c>
-      <c r="O53" s="1">
+      <c r="R53" s="1">
         <v>27.492418000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>16</v>
+      </c>
       <c r="B54" s="1">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>23.999999999994316</v>
+      </c>
+      <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>11.146026299999999</v>
       </c>
-      <c r="E54" s="1">
+      <c r="H54" s="1">
         <v>111.460263</v>
       </c>
-      <c r="G54" s="1">
+      <c r="J54" s="1">
         <v>5</v>
       </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="1"/>
         <v>0.29864030000000003</v>
       </c>
-      <c r="J54" s="1">
+      <c r="M54" s="1">
         <v>2.9864030000000001</v>
       </c>
-      <c r="L54" s="1">
+      <c r="O54" s="1">
         <v>2</v>
       </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
         <f t="shared" si="2"/>
         <v>3.0043446</v>
       </c>
-      <c r="O54" s="1">
+      <c r="R54" s="1">
         <v>30.043445999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>16</v>
+      </c>
       <c r="B55" s="1">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1">
+        <v>48.000000000001592</v>
+      </c>
+      <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>11.610146799999999</v>
       </c>
-      <c r="E55" s="1">
+      <c r="H55" s="1">
         <v>116.101468</v>
       </c>
-      <c r="G55" s="1">
+      <c r="J55" s="1">
         <v>5</v>
       </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" si="1"/>
         <v>0.130409</v>
       </c>
-      <c r="J55" s="1">
+      <c r="M55" s="1">
         <v>1.30409</v>
       </c>
-      <c r="L55" s="1">
+      <c r="O55" s="1">
         <v>5</v>
       </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
         <f t="shared" si="2"/>
         <v>3.0345172000000002</v>
       </c>
-      <c r="O55" s="1">
+      <c r="R55" s="1">
         <v>30.345172000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>16</v>
+      </c>
       <c r="B56" s="1">
+        <v>43</v>
+      </c>
+      <c r="C56" s="1">
+        <v>11.999999999995907</v>
+      </c>
+      <c r="E56" s="1">
         <v>2</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>11.6933866</v>
       </c>
-      <c r="E56" s="1">
+      <c r="H56" s="1">
         <v>116.93386599999999</v>
       </c>
-      <c r="G56" s="1">
+      <c r="J56" s="1">
         <v>5</v>
       </c>
-      <c r="H56" s="1">
+      <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="I56" s="1">
+      <c r="L56" s="1">
         <f t="shared" si="1"/>
         <v>0.12043870000000001</v>
       </c>
-      <c r="J56" s="1">
+      <c r="M56" s="1">
         <v>1.2043870000000001</v>
       </c>
-      <c r="L56" s="1">
+      <c r="O56" s="1">
         <v>5</v>
       </c>
-      <c r="M56" s="1">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
         <f t="shared" si="2"/>
         <v>2.5425671999999997</v>
       </c>
-      <c r="O56" s="1">
+      <c r="R56" s="1">
         <v>25.425671999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>16</v>
+      </c>
       <c r="B57" s="1">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>36.000000000003183</v>
+      </c>
+      <c r="E57" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>11.584255500000001</v>
       </c>
-      <c r="E57" s="1">
+      <c r="H57" s="1">
         <v>115.842555</v>
       </c>
-      <c r="G57" s="1">
+      <c r="J57" s="1">
         <v>5</v>
       </c>
-      <c r="H57" s="1">
+      <c r="K57" s="1">
         <v>3</v>
       </c>
-      <c r="I57" s="1">
+      <c r="L57" s="1">
         <f t="shared" si="1"/>
         <v>0.28838560000000002</v>
       </c>
-      <c r="J57" s="1">
+      <c r="M57" s="1">
         <v>2.8838560000000002</v>
       </c>
-      <c r="L57" s="1">
+      <c r="O57" s="1">
         <v>5</v>
       </c>
-      <c r="M57" s="1">
-        <v>0</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
         <f t="shared" si="2"/>
         <v>2.3377030000000003</v>
       </c>
-      <c r="O57" s="1">
+      <c r="R57" s="1">
         <v>23.377030000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>17</v>
+      </c>
       <c r="B58" s="1">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-2.5011104298755527E-12</v>
+      </c>
+      <c r="E58" s="1">
         <v>2</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>11.1787127</v>
       </c>
-      <c r="E58" s="1">
+      <c r="H58" s="1">
         <v>111.787127</v>
       </c>
-      <c r="G58" s="1">
+      <c r="J58" s="1">
         <v>5</v>
       </c>
-      <c r="H58" s="1">
+      <c r="K58" s="1">
         <v>2</v>
       </c>
-      <c r="I58" s="1">
+      <c r="L58" s="1">
         <f t="shared" si="1"/>
         <v>2.2787200000000001E-2</v>
       </c>
-      <c r="J58" s="1">
+      <c r="M58" s="1">
         <v>0.22787199999999999</v>
       </c>
-      <c r="L58" s="1">
+      <c r="O58" s="1">
         <v>5</v>
       </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
         <f t="shared" si="2"/>
         <v>1.9087644000000001</v>
       </c>
-      <c r="O58" s="1">
+      <c r="R58" s="1">
         <v>19.087644000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>17</v>
+      </c>
       <c r="B59" s="1">
+        <v>26</v>
+      </c>
+      <c r="C59" s="1">
+        <v>24.000000000004547</v>
+      </c>
+      <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>11.536773100000001</v>
       </c>
-      <c r="E59" s="1">
+      <c r="H59" s="1">
         <v>115.36773100000001</v>
       </c>
-      <c r="G59" s="1">
+      <c r="J59" s="1">
         <v>5</v>
       </c>
-      <c r="H59" s="1">
+      <c r="K59" s="1">
         <v>2</v>
       </c>
-      <c r="I59" s="1">
+      <c r="L59" s="1">
         <f t="shared" si="1"/>
         <v>0.1683858</v>
       </c>
-      <c r="J59" s="1">
+      <c r="M59" s="1">
         <v>1.6838580000000001</v>
       </c>
-      <c r="L59" s="1">
+      <c r="O59" s="1">
         <v>5</v>
       </c>
-      <c r="M59" s="1">
-        <v>0</v>
-      </c>
-      <c r="N59" s="1">
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
         <f t="shared" si="2"/>
         <v>1.4671422000000001</v>
       </c>
-      <c r="O59" s="1">
+      <c r="R59" s="1">
         <v>14.671422</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>17</v>
+      </c>
       <c r="B60" s="1">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1">
+        <v>47.999999999999091</v>
+      </c>
+      <c r="E60" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>11.727432500000001</v>
       </c>
-      <c r="E60" s="1">
+      <c r="H60" s="1">
         <v>117.274325</v>
       </c>
-      <c r="G60" s="1">
+      <c r="J60" s="1">
         <v>5</v>
       </c>
-      <c r="H60" s="1">
+      <c r="K60" s="1">
         <v>1</v>
       </c>
-      <c r="I60" s="1">
+      <c r="L60" s="1">
         <f t="shared" si="1"/>
         <v>1.6528300000000003E-2</v>
       </c>
-      <c r="J60" s="1">
+      <c r="M60" s="1">
         <v>0.16528300000000001</v>
       </c>
-      <c r="L60" s="1">
+      <c r="O60" s="1">
         <v>5</v>
       </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
         <f t="shared" si="2"/>
         <v>0.48503540000000001</v>
       </c>
-      <c r="O60" s="1">
+      <c r="R60" s="1">
         <v>4.8503540000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>17</v>
+      </c>
       <c r="B61" s="1">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>12.000000000006366</v>
+      </c>
+      <c r="E61" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>11.3066367</v>
       </c>
-      <c r="E61" s="1">
+      <c r="H61" s="1">
         <v>113.066367</v>
       </c>
-      <c r="G61" s="1">
+      <c r="J61" s="1">
         <v>5</v>
       </c>
-      <c r="H61" s="1">
+      <c r="K61" s="1">
         <v>4</v>
       </c>
-      <c r="I61" s="1">
+      <c r="L61" s="1">
         <f t="shared" si="1"/>
         <v>2.0443300000000001E-2</v>
       </c>
-      <c r="J61" s="1">
+      <c r="M61" s="1">
         <v>0.204433</v>
       </c>
-      <c r="L61" s="1">
+      <c r="O61" s="1">
         <v>2</v>
       </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
         <f t="shared" si="2"/>
         <v>0.10542309999999999</v>
       </c>
-      <c r="O61" s="1">
+      <c r="R61" s="1">
         <v>1.0542309999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>18</v>
+      </c>
       <c r="B62" s="1">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1">
+        <v>36.000000000000455</v>
+      </c>
+      <c r="E62" s="1">
         <v>2</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>11.720366199999999</v>
       </c>
-      <c r="E62" s="1">
+      <c r="H62" s="1">
         <v>117.20366199999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="J62" s="1">
         <v>5</v>
       </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
         <f t="shared" si="1"/>
         <v>4.5628800000000004E-2</v>
       </c>
-      <c r="J62" s="1">
+      <c r="M62" s="1">
         <v>0.45628800000000003</v>
       </c>
-      <c r="L62" s="1">
+      <c r="O62" s="1">
         <v>2</v>
       </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
         <f t="shared" si="2"/>
         <v>0.21272359999999998</v>
       </c>
-      <c r="O62" s="1">
+      <c r="R62" s="1">
         <v>2.1272359999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>18</v>
+      </c>
       <c r="B63" s="1">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <v>59.999999999994998</v>
+      </c>
+      <c r="E63" s="1">
         <v>2</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>11.9695924</v>
       </c>
-      <c r="E63" s="1">
+      <c r="H63" s="1">
         <v>119.69592400000001</v>
       </c>
-      <c r="G63" s="1">
+      <c r="J63" s="1">
         <v>5</v>
       </c>
-      <c r="H63" s="1">
+      <c r="K63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="1">
+      <c r="L63" s="1">
         <f t="shared" si="1"/>
         <v>1.8198800000000001E-2</v>
       </c>
-      <c r="J63" s="1">
+      <c r="M63" s="1">
         <v>0.18198800000000001</v>
       </c>
-      <c r="L63" s="1">
+      <c r="O63" s="1">
         <v>2</v>
       </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
         <f t="shared" si="2"/>
         <v>0.35273929999999998</v>
       </c>
-      <c r="O63" s="1">
+      <c r="R63" s="1">
         <v>3.527393</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>18</v>
+      </c>
       <c r="B64" s="1">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1">
+        <v>24.000000000001819</v>
+      </c>
+      <c r="E64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
         <f t="shared" si="0"/>
         <v>12.6632186</v>
       </c>
-      <c r="E64" s="1">
+      <c r="H64" s="1">
         <v>126.632186</v>
       </c>
-      <c r="G64" s="1">
+      <c r="J64" s="1">
         <v>5</v>
       </c>
-      <c r="H64" s="1">
+      <c r="K64" s="1">
         <v>5</v>
       </c>
-      <c r="I64" s="1">
+      <c r="L64" s="1">
         <f t="shared" si="1"/>
         <v>1.82148E-2</v>
       </c>
-      <c r="J64" s="1">
+      <c r="M64" s="1">
         <v>0.182148</v>
       </c>
-      <c r="L64" s="1">
+      <c r="O64" s="1">
         <v>2</v>
       </c>
-      <c r="M64" s="1">
+      <c r="P64" s="1">
         <v>2</v>
       </c>
-      <c r="N64" s="1">
+      <c r="Q64" s="1">
         <f t="shared" si="2"/>
         <v>1.82148E-2</v>
       </c>
-      <c r="O64" s="1">
+      <c r="R64" s="1">
         <v>0.182148</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
       <c r="B65" s="1">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>47.999999999996362</v>
+      </c>
+      <c r="E65" s="1">
         <v>2</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="0"/>
         <v>13.4548679</v>
       </c>
-      <c r="E65" s="1">
+      <c r="H65" s="1">
         <v>134.54867899999999</v>
       </c>
-      <c r="G65" s="1">
+      <c r="J65" s="1">
         <v>5</v>
       </c>
-      <c r="H65" s="1">
+      <c r="K65" s="1">
         <v>1</v>
       </c>
-      <c r="I65" s="1">
+      <c r="L65" s="1">
         <f t="shared" si="1"/>
         <v>0.25007299999999999</v>
       </c>
-      <c r="J65" s="1">
+      <c r="M65" s="1">
         <v>2.5007299999999999</v>
       </c>
-      <c r="L65" s="1">
+      <c r="O65" s="1">
         <v>2</v>
       </c>
-      <c r="M65" s="1">
-        <v>0</v>
-      </c>
-      <c r="N65" s="1">
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
         <f t="shared" si="2"/>
         <v>0.62755680000000003</v>
       </c>
-      <c r="O65" s="1">
+      <c r="R65" s="1">
         <v>6.2755679999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>19</v>
+      </c>
       <c r="B66" s="1">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1">
+        <v>12.000000000003581</v>
+      </c>
+      <c r="E66" s="1">
         <v>2</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
         <f t="shared" si="0"/>
         <v>13.886946699999999</v>
       </c>
-      <c r="E66" s="1">
+      <c r="H66" s="1">
         <v>138.86946699999999</v>
       </c>
-      <c r="G66" s="1">
+      <c r="J66" s="1">
         <v>5</v>
       </c>
-      <c r="H66" s="1">
+      <c r="K66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="1">
+      <c r="L66" s="1">
         <f t="shared" si="1"/>
         <v>0.76815149999999999</v>
       </c>
-      <c r="J66" s="1">
+      <c r="M66" s="1">
         <v>7.6815150000000001</v>
       </c>
-      <c r="L66" s="1">
+      <c r="O66" s="1">
         <v>2</v>
       </c>
-      <c r="M66" s="1">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1">
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
         <f t="shared" si="2"/>
         <v>1.2058044999999999</v>
       </c>
-      <c r="O66" s="1">
+      <c r="R66" s="1">
         <v>12.058045</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>19</v>
+      </c>
       <c r="B67" s="1">
+        <v>21</v>
+      </c>
+      <c r="C67" s="1">
+        <v>35.999999999997954</v>
+      </c>
+      <c r="E67" s="1">
         <v>2</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
         <f t="shared" si="0"/>
         <v>14.500857700000001</v>
       </c>
-      <c r="E67" s="1">
+      <c r="H67" s="1">
         <v>145.008577</v>
       </c>
-      <c r="G67" s="1">
+      <c r="J67" s="1">
         <v>5</v>
       </c>
-      <c r="H67" s="1">
+      <c r="K67" s="1">
         <v>5</v>
       </c>
-      <c r="I67" s="1">
+      <c r="L67" s="1">
         <f t="shared" si="1"/>
         <v>2.3902399999999997E-2</v>
       </c>
-      <c r="J67" s="1">
+      <c r="M67" s="1">
         <v>0.23902399999999999</v>
       </c>
-      <c r="L67" s="1">
+      <c r="O67" s="1">
         <v>2</v>
       </c>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
         <f t="shared" si="2"/>
         <v>1.6974992</v>
       </c>
-      <c r="O67" s="1">
+      <c r="R67" s="1">
         <v>16.974992</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>19</v>
+      </c>
       <c r="B68" s="1">
+        <v>36</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5.0022208597511053E-12</v>
+      </c>
+      <c r="E68" s="1">
         <v>2</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" ref="D68:D131" si="3">E68/10</f>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G131" si="3">H68/10</f>
         <v>14.634849900000001</v>
       </c>
-      <c r="E68" s="1">
+      <c r="H68" s="1">
         <v>146.348499</v>
       </c>
-      <c r="G68" s="1">
+      <c r="J68" s="1">
         <v>5</v>
       </c>
-      <c r="H68" s="1">
+      <c r="K68" s="1">
         <v>2</v>
       </c>
-      <c r="I68" s="1">
-        <f t="shared" ref="I68:I103" si="4">J68/10</f>
+      <c r="L68" s="1">
+        <f t="shared" ref="L68:L103" si="4">M68/10</f>
         <v>0.10204240000000001</v>
       </c>
-      <c r="J68" s="1">
+      <c r="M68" s="1">
         <v>1.020424</v>
       </c>
-      <c r="L68" s="1">
+      <c r="O68" s="1">
         <v>2</v>
       </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1">
-        <f t="shared" ref="N68:N103" si="5">O68/10</f>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" ref="Q68:Q103" si="5">R68/10</f>
         <v>2.2998826999999999</v>
       </c>
-      <c r="O68" s="1">
+      <c r="R68" s="1">
         <v>22.998826999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>19</v>
+      </c>
       <c r="B69" s="1">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1">
+        <v>23.999999999999545</v>
+      </c>
+      <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="3"/>
         <v>15.341203400000001</v>
       </c>
-      <c r="E69" s="1">
+      <c r="H69" s="1">
         <v>153.41203400000001</v>
       </c>
-      <c r="G69" s="1">
+      <c r="J69" s="1">
         <v>5</v>
       </c>
-      <c r="H69" s="1">
+      <c r="K69" s="1">
         <v>4</v>
       </c>
-      <c r="I69" s="1">
+      <c r="L69" s="1">
         <f t="shared" si="4"/>
         <v>0.16530890000000001</v>
       </c>
-      <c r="J69" s="1">
+      <c r="M69" s="1">
         <v>1.653089</v>
       </c>
-      <c r="L69" s="1">
+      <c r="O69" s="1">
         <v>2</v>
       </c>
-      <c r="M69" s="1">
-        <v>0</v>
-      </c>
-      <c r="N69" s="1">
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
         <f t="shared" si="5"/>
         <v>2.6211975999999999</v>
       </c>
-      <c r="O69" s="1">
+      <c r="R69" s="1">
         <v>26.211976</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
       <c r="B70" s="1">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>47.999999999993861</v>
+      </c>
+      <c r="E70" s="1">
         <v>2</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="3"/>
         <v>15.5436394</v>
       </c>
-      <c r="E70" s="1">
+      <c r="H70" s="1">
         <v>155.43639400000001</v>
       </c>
-      <c r="G70" s="1">
+      <c r="J70" s="1">
         <v>5</v>
       </c>
-      <c r="H70" s="1">
+      <c r="K70" s="1">
         <v>2</v>
       </c>
-      <c r="I70" s="1">
+      <c r="L70" s="1">
         <f t="shared" si="4"/>
         <v>5.6894900000000005E-2</v>
       </c>
-      <c r="J70" s="1">
+      <c r="M70" s="1">
         <v>0.56894900000000004</v>
       </c>
-      <c r="L70" s="1">
+      <c r="O70" s="1">
         <v>2</v>
       </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
         <f t="shared" si="5"/>
         <v>2.3892172</v>
       </c>
-      <c r="O70" s="1">
+      <c r="R70" s="1">
         <v>23.892171999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>20</v>
+      </c>
       <c r="B71" s="1">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>12.000000000000909</v>
+      </c>
+      <c r="E71" s="1">
         <v>2</v>
       </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="3"/>
         <v>15.9078822</v>
       </c>
-      <c r="E71" s="1">
+      <c r="H71" s="1">
         <v>159.078822</v>
       </c>
-      <c r="G71" s="1">
+      <c r="J71" s="1">
         <v>5</v>
       </c>
-      <c r="H71" s="1">
+      <c r="K71" s="1">
         <v>2</v>
       </c>
-      <c r="I71" s="1">
+      <c r="L71" s="1">
         <f t="shared" si="4"/>
         <v>3.7534200000000004E-2</v>
       </c>
-      <c r="J71" s="1">
+      <c r="M71" s="1">
         <v>0.37534200000000001</v>
       </c>
-      <c r="L71" s="1">
+      <c r="O71" s="1">
         <v>2</v>
       </c>
-      <c r="M71" s="1">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1">
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
         <f t="shared" si="5"/>
         <v>2.6098599</v>
       </c>
-      <c r="O71" s="1">
+      <c r="R71" s="1">
         <v>26.098599</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>20</v>
+      </c>
       <c r="B72" s="1">
+        <v>33</v>
+      </c>
+      <c r="C72" s="1">
+        <v>35.999999999995453</v>
+      </c>
+      <c r="E72" s="1">
         <v>2</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="3"/>
         <v>16.052547699999998</v>
       </c>
-      <c r="E72" s="1">
+      <c r="H72" s="1">
         <v>160.525477</v>
       </c>
-      <c r="G72" s="1">
+      <c r="J72" s="1">
         <v>5</v>
       </c>
-      <c r="H72" s="1">
+      <c r="K72" s="1">
         <v>4</v>
       </c>
-      <c r="I72" s="1">
+      <c r="L72" s="1">
         <f t="shared" si="4"/>
         <v>2.64478E-2</v>
       </c>
-      <c r="J72" s="1">
+      <c r="M72" s="1">
         <v>0.26447799999999999</v>
       </c>
-      <c r="L72" s="1">
+      <c r="O72" s="1">
         <v>2</v>
       </c>
-      <c r="M72" s="1">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1">
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
         <f t="shared" si="5"/>
         <v>2.8182746000000001</v>
       </c>
-      <c r="O72" s="1">
+      <c r="R72" s="1">
         <v>28.182746000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>20</v>
+      </c>
       <c r="B73" s="1">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="3"/>
         <v>16.675075200000002</v>
       </c>
-      <c r="E73" s="1">
+      <c r="H73" s="1">
         <v>166.75075200000001</v>
       </c>
-      <c r="G73" s="1">
+      <c r="J73" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
         <f t="shared" si="4"/>
         <v>0.23439109999999999</v>
       </c>
-      <c r="J73" s="1">
+      <c r="M73" s="1">
         <v>2.3439109999999999</v>
       </c>
-      <c r="L73" s="1">
+      <c r="O73" s="1">
         <v>5</v>
       </c>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
         <f t="shared" si="5"/>
         <v>1.2085889000000001</v>
       </c>
-      <c r="O73" s="1">
+      <c r="R73" s="1">
         <v>12.085889</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>21</v>
+      </c>
       <c r="B74" s="1">
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
+        <v>23.99999999999693</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="3"/>
         <v>17.173765400000001</v>
       </c>
-      <c r="E74" s="1">
+      <c r="H74" s="1">
         <v>171.73765399999999</v>
       </c>
-      <c r="G74" s="1">
+      <c r="J74" s="1">
         <v>5</v>
       </c>
-      <c r="H74" s="1">
+      <c r="K74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="1">
+      <c r="L74" s="1">
         <f t="shared" si="4"/>
         <v>5.25114E-2</v>
       </c>
-      <c r="J74" s="1">
+      <c r="M74" s="1">
         <v>0.52511399999999997</v>
       </c>
-      <c r="L74" s="1">
+      <c r="O74" s="1">
         <v>5</v>
       </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1">
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
         <f t="shared" si="5"/>
         <v>0.61057129999999993</v>
       </c>
-      <c r="O74" s="1">
+      <c r="R74" s="1">
         <v>6.1057129999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>21</v>
+      </c>
       <c r="B75" s="1">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1">
+        <v>48.000000000004093</v>
+      </c>
+      <c r="E75" s="1">
         <v>2</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="3"/>
         <v>17.903964800000001</v>
       </c>
-      <c r="E75" s="1">
+      <c r="H75" s="1">
         <v>179.039648</v>
       </c>
-      <c r="G75" s="1">
+      <c r="J75" s="1">
         <v>5</v>
       </c>
-      <c r="H75" s="1">
+      <c r="K75" s="1">
         <v>2</v>
       </c>
-      <c r="I75" s="1">
+      <c r="L75" s="1">
         <f t="shared" si="4"/>
         <v>0.13042280000000001</v>
       </c>
-      <c r="J75" s="1">
+      <c r="M75" s="1">
         <v>1.3042279999999999</v>
       </c>
-      <c r="L75" s="1">
+      <c r="O75" s="1">
         <v>2</v>
       </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
         <f t="shared" si="5"/>
         <v>0.27643469999999998</v>
       </c>
-      <c r="O75" s="1">
+      <c r="R75" s="1">
         <v>2.7643469999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>21</v>
+      </c>
       <c r="B76" s="1">
+        <v>31</v>
+      </c>
+      <c r="C76" s="1">
+        <v>11.999999999998408</v>
+      </c>
+      <c r="E76" s="1">
         <v>2</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="3"/>
         <v>17.633907099999998</v>
       </c>
-      <c r="E76" s="1">
+      <c r="H76" s="1">
         <v>176.33907099999999</v>
       </c>
-      <c r="G76" s="1">
+      <c r="J76" s="1">
         <v>5</v>
       </c>
-      <c r="H76" s="1">
+      <c r="K76" s="1">
         <v>1</v>
       </c>
-      <c r="I76" s="1">
+      <c r="L76" s="1">
         <f t="shared" si="4"/>
         <v>3.8155399999999999E-2</v>
       </c>
-      <c r="J76" s="1">
+      <c r="M76" s="1">
         <v>0.381554</v>
       </c>
-      <c r="L76" s="1">
+      <c r="O76" s="1">
         <v>2</v>
       </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1">
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
         <f t="shared" si="5"/>
         <v>3.8155399999999999E-2</v>
       </c>
-      <c r="O76" s="1">
+      <c r="R76" s="1">
         <v>0.381554</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>21</v>
+      </c>
       <c r="B77" s="1">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1">
+        <v>36.000000000005457</v>
+      </c>
+      <c r="E77" s="1">
         <v>2</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="3"/>
         <v>18.154870600000002</v>
       </c>
-      <c r="E77" s="1">
+      <c r="H77" s="1">
         <v>181.54870600000001</v>
       </c>
-      <c r="G77" s="1">
+      <c r="J77" s="1">
         <v>5</v>
       </c>
-      <c r="H77" s="1">
+      <c r="K77" s="1">
         <v>2</v>
       </c>
-      <c r="I77" s="1">
+      <c r="L77" s="1">
         <f t="shared" si="4"/>
         <v>0.20830350000000003</v>
       </c>
-      <c r="J77" s="1">
+      <c r="M77" s="1">
         <v>2.0830350000000002</v>
       </c>
-      <c r="L77" s="1">
+      <c r="O77" s="1">
         <v>2</v>
       </c>
-      <c r="M77" s="1">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1">
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
         <f t="shared" si="5"/>
         <v>0.28647929999999999</v>
       </c>
-      <c r="O77" s="1">
+      <c r="R77" s="1">
         <v>2.8647930000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>22</v>
+      </c>
       <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
         <v>2</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="3"/>
         <v>18.5925826</v>
       </c>
-      <c r="E78" s="1">
+      <c r="H78" s="1">
         <v>185.925826</v>
       </c>
-      <c r="G78" s="1">
+      <c r="J78" s="1">
         <v>5</v>
       </c>
-      <c r="H78" s="1">
+      <c r="K78" s="1">
         <v>3</v>
       </c>
-      <c r="I78" s="1">
+      <c r="L78" s="1">
         <f t="shared" si="4"/>
         <v>0.16168149999999998</v>
       </c>
-      <c r="J78" s="1">
+      <c r="M78" s="1">
         <v>1.6168149999999999</v>
       </c>
-      <c r="L78" s="1">
+      <c r="O78" s="1">
         <v>2</v>
       </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1">
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
         <f t="shared" si="5"/>
         <v>0.39482010000000001</v>
       </c>
-      <c r="O78" s="1">
+      <c r="R78" s="1">
         <v>3.9482010000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>22</v>
+      </c>
       <c r="B79" s="1">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23.999999999994316</v>
+      </c>
+      <c r="E79" s="1">
         <v>2</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="3"/>
         <v>18.718278599999998</v>
       </c>
-      <c r="E79" s="1">
+      <c r="H79" s="1">
         <v>187.18278599999999</v>
       </c>
-      <c r="G79" s="1">
+      <c r="J79" s="1">
         <v>5</v>
       </c>
-      <c r="H79" s="1">
+      <c r="K79" s="1">
         <v>1</v>
       </c>
-      <c r="I79" s="1">
+      <c r="L79" s="1">
         <f t="shared" si="4"/>
         <v>4.0340899999999999E-2</v>
       </c>
-      <c r="J79" s="1">
+      <c r="M79" s="1">
         <v>0.40340900000000002</v>
       </c>
-      <c r="L79" s="1">
+      <c r="O79" s="1">
         <v>2</v>
       </c>
-      <c r="M79" s="1">
-        <v>0</v>
-      </c>
-      <c r="N79" s="1">
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
         <f t="shared" si="5"/>
         <v>0.1575271</v>
       </c>
-      <c r="O79" s="1">
+      <c r="R79" s="1">
         <v>1.5752710000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>22</v>
+      </c>
       <c r="B80" s="1">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1">
+        <v>48.000000000001592</v>
+      </c>
+      <c r="E80" s="1">
         <v>2</v>
       </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="3"/>
         <v>18.642909700000001</v>
       </c>
-      <c r="E80" s="1">
+      <c r="H80" s="1">
         <v>186.42909700000001</v>
       </c>
-      <c r="G80" s="1">
+      <c r="J80" s="1">
         <v>5</v>
       </c>
-      <c r="H80" s="1">
+      <c r="K80" s="1">
         <v>4</v>
       </c>
-      <c r="I80" s="1">
+      <c r="L80" s="1">
         <f t="shared" si="4"/>
         <v>4.8106200000000002E-2</v>
       </c>
-      <c r="J80" s="1">
+      <c r="M80" s="1">
         <v>0.48106199999999999</v>
       </c>
-      <c r="L80" s="1">
+      <c r="O80" s="1">
         <v>2</v>
       </c>
-      <c r="M80" s="1">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1">
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
         <f t="shared" si="5"/>
         <v>0.84729310000000013</v>
       </c>
-      <c r="O80" s="1">
+      <c r="R80" s="1">
         <v>8.4729310000000009</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>22</v>
+      </c>
       <c r="B81" s="1">
+        <v>43</v>
+      </c>
+      <c r="C81" s="1">
+        <v>11.999999999995907</v>
+      </c>
+      <c r="E81" s="1">
         <v>2</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="3"/>
         <v>19.015729200000003</v>
       </c>
-      <c r="E81" s="1">
+      <c r="H81" s="1">
         <v>190.15729200000001</v>
       </c>
-      <c r="G81" s="1">
+      <c r="J81" s="1">
         <v>5</v>
       </c>
-      <c r="H81" s="1">
+      <c r="K81" s="1">
         <v>5</v>
       </c>
-      <c r="I81" s="1">
+      <c r="L81" s="1">
         <f t="shared" si="4"/>
         <v>0.26802380000000003</v>
       </c>
-      <c r="J81" s="1">
+      <c r="M81" s="1">
         <v>2.6802380000000001</v>
       </c>
-      <c r="L81" s="1">
+      <c r="O81" s="1">
         <v>2</v>
       </c>
-      <c r="M81" s="1">
-        <v>0</v>
-      </c>
-      <c r="N81" s="1">
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
         <f t="shared" si="5"/>
         <v>0.76640649999999999</v>
       </c>
-      <c r="O81" s="1">
+      <c r="R81" s="1">
         <v>7.6640649999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>22</v>
+      </c>
       <c r="B82" s="1">
+        <v>57</v>
+      </c>
+      <c r="C82" s="1">
+        <v>36.000000000003183</v>
+      </c>
+      <c r="E82" s="1">
         <v>2</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="3"/>
         <v>18.511759300000001</v>
       </c>
-      <c r="E82" s="1">
+      <c r="H82" s="1">
         <v>185.117593</v>
       </c>
-      <c r="G82" s="1">
+      <c r="J82" s="1">
         <v>5</v>
       </c>
-      <c r="H82" s="1">
+      <c r="K82" s="1">
         <v>3</v>
       </c>
-      <c r="I82" s="1">
+      <c r="L82" s="1">
         <f t="shared" si="4"/>
         <v>1.0537899999999999E-2</v>
       </c>
-      <c r="J82" s="1">
+      <c r="M82" s="1">
         <v>0.105379</v>
       </c>
-      <c r="L82" s="1">
+      <c r="O82" s="1">
         <v>2</v>
       </c>
-      <c r="M82" s="1">
-        <v>0</v>
-      </c>
-      <c r="N82" s="1">
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
         <f t="shared" si="5"/>
         <v>0.2679127</v>
       </c>
-      <c r="O82" s="1">
+      <c r="R82" s="1">
         <v>2.6791269999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>23</v>
+      </c>
       <c r="B83" s="1">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-2.5011104298755527E-12</v>
+      </c>
+      <c r="E83" s="1">
         <v>2</v>
       </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="3"/>
         <v>18.897489100000001</v>
       </c>
-      <c r="E83" s="1">
+      <c r="H83" s="1">
         <v>188.97489100000001</v>
       </c>
-      <c r="G83" s="1">
+      <c r="J83" s="1">
         <v>5</v>
       </c>
-      <c r="H83" s="1">
+      <c r="K83" s="1">
         <v>4</v>
       </c>
-      <c r="I83" s="1">
+      <c r="L83" s="1">
         <f t="shared" si="4"/>
         <v>7.3863800000000007E-2</v>
       </c>
-      <c r="J83" s="1">
+      <c r="M83" s="1">
         <v>0.73863800000000002</v>
       </c>
-      <c r="L83" s="1">
+      <c r="O83" s="1">
         <v>2</v>
       </c>
-      <c r="M83" s="1">
-        <v>0</v>
-      </c>
-      <c r="N83" s="1">
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
         <f t="shared" si="5"/>
         <v>0.48456869999999996</v>
       </c>
-      <c r="O83" s="1">
+      <c r="R83" s="1">
         <v>4.8456869999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>23</v>
+      </c>
       <c r="B84" s="1">
+        <v>26</v>
+      </c>
+      <c r="C84" s="1">
+        <v>24.000000000004547</v>
+      </c>
+      <c r="E84" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="3"/>
         <v>19.258878000000003</v>
       </c>
-      <c r="E84" s="1">
+      <c r="H84" s="1">
         <v>192.58878000000001</v>
       </c>
-      <c r="G84" s="1">
+      <c r="J84" s="1">
         <v>5</v>
       </c>
-      <c r="H84" s="1">
+      <c r="K84" s="1">
         <v>4</v>
       </c>
-      <c r="I84" s="1">
+      <c r="L84" s="1">
         <f t="shared" si="4"/>
         <v>4.9793500000000004E-2</v>
       </c>
-      <c r="J84" s="1">
+      <c r="M84" s="1">
         <v>0.49793500000000002</v>
       </c>
-      <c r="L84" s="1">
+      <c r="O84" s="1">
         <v>2</v>
       </c>
-      <c r="M84" s="1">
+      <c r="P84" s="1">
         <v>1</v>
       </c>
-      <c r="N84" s="1">
+      <c r="Q84" s="1">
         <f t="shared" si="5"/>
         <v>2.7330100000000003E-2</v>
       </c>
-      <c r="O84" s="1">
+      <c r="R84" s="1">
         <v>0.27330100000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>23</v>
+      </c>
       <c r="B85" s="1">
+        <v>40</v>
+      </c>
+      <c r="C85" s="1">
+        <v>47.999999999999091</v>
+      </c>
+      <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="3"/>
         <v>19.780135699999999</v>
       </c>
-      <c r="E85" s="1">
+      <c r="H85" s="1">
         <v>197.801357</v>
       </c>
-      <c r="G85" s="1">
+      <c r="J85" s="1">
         <v>5</v>
       </c>
-      <c r="H85" s="1">
+      <c r="K85" s="1">
         <v>3</v>
       </c>
-      <c r="I85" s="1">
+      <c r="L85" s="1">
         <f t="shared" si="4"/>
         <v>1.16828E-2</v>
       </c>
-      <c r="J85" s="1">
+      <c r="M85" s="1">
         <v>0.116828</v>
       </c>
-      <c r="L85" s="1">
+      <c r="O85" s="1">
         <v>2</v>
       </c>
-      <c r="M85" s="1">
-        <v>0</v>
-      </c>
-      <c r="N85" s="1">
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
         <f t="shared" si="5"/>
         <v>2.7747699999999997E-2</v>
       </c>
-      <c r="O85" s="1">
+      <c r="R85" s="1">
         <v>0.27747699999999997</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>23</v>
+      </c>
       <c r="B86" s="1">
+        <v>55</v>
+      </c>
+      <c r="C86" s="1">
+        <v>12.000000000006366</v>
+      </c>
+      <c r="E86" s="1">
         <v>2</v>
       </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="3"/>
         <v>20.358466</v>
       </c>
-      <c r="E86" s="1">
+      <c r="H86" s="1">
         <v>203.58466000000001</v>
       </c>
-      <c r="G86" s="1">
+      <c r="J86" s="1">
         <v>5</v>
       </c>
-      <c r="H86" s="1">
+      <c r="K86" s="1">
         <v>3</v>
       </c>
-      <c r="I86" s="1">
+      <c r="L86" s="1">
         <f t="shared" si="4"/>
         <v>0.1295154</v>
       </c>
-      <c r="J86" s="1">
+      <c r="M86" s="1">
         <v>1.2951539999999999</v>
       </c>
-      <c r="L86" s="1">
+      <c r="O86" s="1">
         <v>2</v>
       </c>
-      <c r="M86" s="1">
-        <v>0</v>
-      </c>
-      <c r="N86" s="1">
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
         <f t="shared" si="5"/>
         <v>0.17185109999999998</v>
       </c>
-      <c r="O86" s="1">
+      <c r="R86" s="1">
         <v>1.7185109999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>24</v>
+      </c>
       <c r="B87" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>36.000000000000455</v>
+      </c>
+      <c r="E87" s="1">
         <v>2</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="3"/>
         <v>20.7975098</v>
       </c>
-      <c r="E87" s="1">
+      <c r="H87" s="1">
         <v>207.975098</v>
       </c>
-      <c r="G87" s="1">
+      <c r="J87" s="1">
         <v>5</v>
       </c>
-      <c r="H87" s="1">
+      <c r="K87" s="1">
         <v>5</v>
       </c>
-      <c r="I87" s="1">
+      <c r="L87" s="1">
         <f t="shared" si="4"/>
         <v>3.3796699999999999E-2</v>
       </c>
-      <c r="J87" s="1">
+      <c r="M87" s="1">
         <v>0.33796700000000002</v>
       </c>
-      <c r="L87" s="1">
+      <c r="O87" s="1">
         <v>2</v>
       </c>
-      <c r="M87" s="1">
+      <c r="P87" s="1">
         <v>2</v>
       </c>
-      <c r="N87" s="1">
+      <c r="Q87" s="1">
         <f t="shared" si="5"/>
         <v>3.3796699999999999E-2</v>
       </c>
-      <c r="O87" s="1">
+      <c r="R87" s="1">
         <v>0.33796700000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>24</v>
+      </c>
       <c r="B88" s="1">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1">
+        <v>59.999999999994998</v>
+      </c>
+      <c r="E88" s="1">
         <v>2</v>
       </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="3"/>
         <v>20.636443499999999</v>
       </c>
-      <c r="E88" s="1">
+      <c r="H88" s="1">
         <v>206.36443499999999</v>
       </c>
-      <c r="G88" s="1">
+      <c r="J88" s="1">
         <v>5</v>
       </c>
-      <c r="H88" s="1">
+      <c r="K88" s="1">
         <v>5</v>
       </c>
-      <c r="I88" s="1">
+      <c r="L88" s="1">
         <f t="shared" si="4"/>
         <v>6.7378800000000003E-2</v>
       </c>
-      <c r="J88" s="1">
+      <c r="M88" s="1">
         <v>0.67378800000000005</v>
       </c>
-      <c r="L88" s="1">
+      <c r="O88" s="1">
         <v>2</v>
       </c>
-      <c r="M88" s="1">
+      <c r="P88" s="1">
         <v>2</v>
       </c>
-      <c r="N88" s="1">
+      <c r="Q88" s="1">
         <f t="shared" si="5"/>
         <v>6.7378800000000003E-2</v>
       </c>
-      <c r="O88" s="1">
+      <c r="R88" s="1">
         <v>0.67378800000000005</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>24</v>
+      </c>
       <c r="B89" s="1">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1">
+        <v>24.000000000001819</v>
+      </c>
+      <c r="E89" s="1">
         <v>2</v>
       </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="3"/>
         <v>20.610340000000001</v>
       </c>
-      <c r="E89" s="1">
+      <c r="H89" s="1">
         <v>206.10339999999999</v>
       </c>
-      <c r="G89" s="1">
+      <c r="J89" s="1">
         <v>5</v>
       </c>
-      <c r="H89" s="1">
+      <c r="K89" s="1">
         <v>2</v>
       </c>
-      <c r="I89" s="1">
+      <c r="L89" s="1">
         <f t="shared" si="4"/>
         <v>0.1735708</v>
       </c>
-      <c r="J89" s="1">
+      <c r="M89" s="1">
         <v>1.735708</v>
       </c>
-      <c r="L89" s="1">
+      <c r="O89" s="1">
         <v>2</v>
       </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1">
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
         <f t="shared" si="5"/>
         <v>0.26312570000000002</v>
       </c>
-      <c r="O89" s="1">
+      <c r="R89" s="1">
         <v>2.6312570000000002</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>24</v>
+      </c>
       <c r="B90" s="1">
+        <v>52</v>
+      </c>
+      <c r="C90" s="1">
+        <v>47.999999999996362</v>
+      </c>
+      <c r="E90" s="1">
         <v>2</v>
       </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="3"/>
         <v>20.640028000000001</v>
       </c>
-      <c r="E90" s="1">
+      <c r="H90" s="1">
         <v>206.40028000000001</v>
       </c>
-      <c r="G90" s="1">
+      <c r="J90" s="1">
         <v>5</v>
       </c>
-      <c r="H90" s="1">
+      <c r="K90" s="1">
         <v>4</v>
       </c>
-      <c r="I90" s="1">
+      <c r="L90" s="1">
         <f t="shared" si="4"/>
         <v>0.42568810000000001</v>
       </c>
-      <c r="J90" s="1">
+      <c r="M90" s="1">
         <v>4.2568809999999999</v>
       </c>
-      <c r="L90" s="1">
+      <c r="O90" s="1">
         <v>2</v>
       </c>
-      <c r="M90" s="1">
+      <c r="P90" s="1">
         <v>1</v>
       </c>
-      <c r="N90" s="1">
+      <c r="Q90" s="1">
         <f t="shared" si="5"/>
         <v>0.58118920000000007</v>
       </c>
-      <c r="O90" s="1">
+      <c r="R90" s="1">
         <v>5.8118920000000003</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>25</v>
+      </c>
       <c r="B91" s="1">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>12.000000000003581</v>
+      </c>
+      <c r="E91" s="1">
         <v>2</v>
       </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="3"/>
         <v>20.960535200000002</v>
       </c>
-      <c r="E91" s="1">
+      <c r="H91" s="1">
         <v>209.60535200000001</v>
       </c>
-      <c r="G91" s="1">
+      <c r="J91" s="1">
         <v>5</v>
       </c>
-      <c r="H91" s="1">
+      <c r="K91" s="1">
         <v>5</v>
       </c>
-      <c r="I91" s="1">
+      <c r="L91" s="1">
         <f t="shared" si="4"/>
         <v>0.39069280000000001</v>
       </c>
-      <c r="J91" s="1">
+      <c r="M91" s="1">
         <v>3.9069280000000002</v>
       </c>
-      <c r="L91" s="1">
+      <c r="O91" s="1">
         <v>2</v>
       </c>
-      <c r="M91" s="1">
+      <c r="P91" s="1">
         <v>2</v>
       </c>
-      <c r="N91" s="1">
+      <c r="Q91" s="1">
         <f t="shared" si="5"/>
         <v>0.39069280000000001</v>
       </c>
-      <c r="O91" s="1">
+      <c r="R91" s="1">
         <v>3.9069280000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>25</v>
+      </c>
       <c r="B92" s="1">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1">
+        <v>35.999999999997954</v>
+      </c>
+      <c r="E92" s="1">
         <v>2</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="3"/>
         <v>21.007553100000003</v>
       </c>
-      <c r="E92" s="1">
+      <c r="H92" s="1">
         <v>210.07553100000001</v>
       </c>
-      <c r="G92" s="1">
+      <c r="J92" s="1">
         <v>5</v>
       </c>
-      <c r="H92" s="1">
+      <c r="K92" s="1">
         <v>4</v>
       </c>
-      <c r="I92" s="1">
+      <c r="L92" s="1">
         <f t="shared" si="4"/>
         <v>2.4053999999999999E-2</v>
       </c>
-      <c r="J92" s="1">
+      <c r="M92" s="1">
         <v>0.24054</v>
       </c>
-      <c r="L92" s="1">
+      <c r="O92" s="1">
         <v>2</v>
       </c>
-      <c r="M92" s="1">
+      <c r="P92" s="1">
         <v>1</v>
       </c>
-      <c r="N92" s="1">
+      <c r="Q92" s="1">
         <f t="shared" si="5"/>
         <v>2.4053999999999999E-2</v>
       </c>
-      <c r="O92" s="1">
+      <c r="R92" s="1">
         <v>0.24054</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
       <c r="B93" s="1">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5.0022208597511053E-12</v>
+      </c>
+      <c r="E93" s="1">
         <v>2</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="3"/>
         <v>20.5844068</v>
       </c>
-      <c r="E93" s="1">
+      <c r="H93" s="1">
         <v>205.84406799999999</v>
       </c>
-      <c r="G93" s="1">
+      <c r="J93" s="1">
         <v>5</v>
       </c>
-      <c r="H93" s="1">
+      <c r="K93" s="1">
         <v>4</v>
       </c>
-      <c r="I93" s="1">
+      <c r="L93" s="1">
         <f t="shared" si="4"/>
         <v>7.4591500000000005E-2</v>
       </c>
-      <c r="J93" s="1">
+      <c r="M93" s="1">
         <v>0.74591499999999999</v>
       </c>
-      <c r="L93" s="1">
+      <c r="O93" s="1">
         <v>2</v>
       </c>
-      <c r="M93" s="1">
-        <v>0</v>
-      </c>
-      <c r="N93" s="1">
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
         <f t="shared" si="5"/>
         <v>0.55461280000000002</v>
       </c>
-      <c r="O93" s="1">
+      <c r="R93" s="1">
         <v>5.5461280000000004</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>25</v>
+      </c>
       <c r="B94" s="1">
+        <v>50</v>
+      </c>
+      <c r="C94" s="1">
+        <v>23.999999999999545</v>
+      </c>
+      <c r="E94" s="1">
         <v>2</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="3"/>
         <v>21.622326300000001</v>
       </c>
-      <c r="E94" s="1">
+      <c r="H94" s="1">
         <v>216.223263</v>
       </c>
-      <c r="G94" s="1">
+      <c r="J94" s="1">
         <v>5</v>
       </c>
-      <c r="H94" s="1">
+      <c r="K94" s="1">
         <v>4</v>
       </c>
-      <c r="I94" s="1">
+      <c r="L94" s="1">
         <f t="shared" si="4"/>
         <v>0.1152104</v>
       </c>
-      <c r="J94" s="1">
+      <c r="M94" s="1">
         <v>1.152104</v>
       </c>
-      <c r="L94" s="1">
+      <c r="O94" s="1">
         <v>2</v>
       </c>
-      <c r="M94" s="1">
+      <c r="P94" s="1">
         <v>1</v>
       </c>
-      <c r="N94" s="1">
+      <c r="Q94" s="1">
         <f t="shared" si="5"/>
         <v>0.1152104</v>
       </c>
-      <c r="O94" s="1">
+      <c r="R94" s="1">
         <v>1.152104</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>26</v>
+      </c>
       <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>47.999999999993861</v>
+      </c>
+      <c r="E95" s="1">
         <v>2</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="3"/>
         <v>21.9909797</v>
       </c>
-      <c r="E95" s="1">
+      <c r="H95" s="1">
         <v>219.909797</v>
       </c>
-      <c r="G95" s="1">
+      <c r="J95" s="1">
         <v>5</v>
       </c>
-      <c r="H95" s="1">
+      <c r="K95" s="1">
         <v>4</v>
       </c>
-      <c r="I95" s="1">
+      <c r="L95" s="1">
         <f t="shared" si="4"/>
         <v>7.7809000000000003E-3</v>
       </c>
-      <c r="J95" s="1">
+      <c r="M95" s="1">
         <v>7.7809000000000003E-2</v>
       </c>
-      <c r="L95" s="1">
+      <c r="O95" s="1">
         <v>2</v>
       </c>
-      <c r="M95" s="1">
+      <c r="P95" s="1">
         <v>1</v>
       </c>
-      <c r="N95" s="1">
+      <c r="Q95" s="1">
         <f t="shared" si="5"/>
         <v>7.7809000000000003E-3</v>
       </c>
-      <c r="O95" s="1">
+      <c r="R95" s="1">
         <v>7.7809000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>26</v>
+      </c>
       <c r="B96" s="1">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1">
+        <v>12.000000000000909</v>
+      </c>
+      <c r="E96" s="1">
         <v>2</v>
       </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="3"/>
         <v>22.151165200000001</v>
       </c>
-      <c r="E96" s="1">
+      <c r="H96" s="1">
         <v>221.511652</v>
       </c>
-      <c r="G96" s="1">
+      <c r="J96" s="1">
         <v>5</v>
       </c>
-      <c r="H96" s="1">
+      <c r="K96" s="1">
         <v>4</v>
       </c>
-      <c r="I96" s="1">
+      <c r="L96" s="1">
         <f t="shared" si="4"/>
         <v>0.2206042</v>
       </c>
-      <c r="J96" s="1">
+      <c r="M96" s="1">
         <v>2.2060420000000001</v>
       </c>
-      <c r="L96" s="1">
+      <c r="O96" s="1">
         <v>2</v>
       </c>
-      <c r="M96" s="1">
+      <c r="P96" s="1">
         <v>1</v>
       </c>
-      <c r="N96" s="1">
+      <c r="Q96" s="1">
         <f t="shared" si="5"/>
         <v>0.24926129999999999</v>
       </c>
-      <c r="O96" s="1">
+      <c r="R96" s="1">
         <v>2.492613</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>26</v>
+      </c>
       <c r="B97" s="1">
+        <v>33</v>
+      </c>
+      <c r="C97" s="1">
+        <v>35.999999999995453</v>
+      </c>
+      <c r="E97" s="1">
         <v>2</v>
       </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="3"/>
         <v>22.602930300000001</v>
       </c>
-      <c r="E97" s="1">
+      <c r="H97" s="1">
         <v>226.029303</v>
       </c>
-      <c r="G97" s="1">
+      <c r="J97" s="1">
         <v>5</v>
       </c>
-      <c r="H97" s="1">
+      <c r="K97" s="1">
         <v>5</v>
       </c>
-      <c r="I97" s="1">
+      <c r="L97" s="1">
         <f t="shared" si="4"/>
         <v>0.21877939999999998</v>
       </c>
-      <c r="J97" s="1">
+      <c r="M97" s="1">
         <v>2.1877939999999998</v>
       </c>
-      <c r="L97" s="1">
+      <c r="O97" s="1">
         <v>2</v>
       </c>
-      <c r="M97" s="1">
+      <c r="P97" s="1">
         <v>2</v>
       </c>
-      <c r="N97" s="1">
+      <c r="Q97" s="1">
         <f t="shared" si="5"/>
         <v>0.21877939999999998</v>
       </c>
-      <c r="O97" s="1">
+      <c r="R97" s="1">
         <v>2.1877939999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>26</v>
+      </c>
       <c r="B98" s="1">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
         <v>2</v>
       </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
         <f t="shared" si="3"/>
         <v>22.827442699999999</v>
       </c>
-      <c r="E98" s="1">
+      <c r="H98" s="1">
         <v>228.274427</v>
       </c>
-      <c r="G98" s="1">
+      <c r="J98" s="1">
         <v>5</v>
       </c>
-      <c r="H98" s="1">
+      <c r="K98" s="1">
         <v>5</v>
       </c>
-      <c r="I98" s="1">
+      <c r="L98" s="1">
         <f t="shared" si="4"/>
         <v>0.1634825</v>
       </c>
-      <c r="J98" s="1">
+      <c r="M98" s="1">
         <v>1.634825</v>
       </c>
-      <c r="L98" s="1">
+      <c r="O98" s="1">
         <v>2</v>
       </c>
-      <c r="M98" s="1">
+      <c r="P98" s="1">
         <v>2</v>
       </c>
-      <c r="N98" s="1">
+      <c r="Q98" s="1">
         <f t="shared" si="5"/>
         <v>0.1634825</v>
       </c>
-      <c r="O98" s="1">
+      <c r="R98" s="1">
         <v>1.634825</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>27</v>
+      </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
+        <v>23.99999999999693</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="3"/>
         <v>22.9600121</v>
       </c>
-      <c r="E99" s="1">
+      <c r="H99" s="1">
         <v>229.600121</v>
       </c>
-      <c r="G99" s="1">
+      <c r="J99" s="1">
         <v>5</v>
       </c>
-      <c r="H99" s="1">
+      <c r="K99" s="1">
         <v>3</v>
       </c>
-      <c r="I99" s="1">
+      <c r="L99" s="1">
         <f t="shared" si="4"/>
         <v>0.1125413</v>
       </c>
-      <c r="J99" s="1">
+      <c r="M99" s="1">
         <v>1.125413</v>
       </c>
-      <c r="L99" s="1">
+      <c r="O99" s="1">
         <v>2</v>
       </c>
-      <c r="M99" s="1">
-        <v>0</v>
-      </c>
-      <c r="N99" s="1">
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
         <f t="shared" si="5"/>
         <v>4.6799099999999996E-2</v>
       </c>
-      <c r="O99" s="1">
+      <c r="R99" s="1">
         <v>0.46799099999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>27</v>
+      </c>
       <c r="B100" s="1">
+        <v>16</v>
+      </c>
+      <c r="C100" s="1">
+        <v>48.000000000004093</v>
+      </c>
+      <c r="E100" s="1">
         <v>2</v>
       </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="3"/>
         <v>22.958841100000001</v>
       </c>
-      <c r="E100" s="1">
+      <c r="H100" s="1">
         <v>229.58841100000001</v>
       </c>
-      <c r="G100" s="1">
+      <c r="J100" s="1">
         <v>5</v>
       </c>
-      <c r="H100" s="1">
+      <c r="K100" s="1">
         <v>5</v>
       </c>
-      <c r="I100" s="1">
+      <c r="L100" s="1">
         <f t="shared" si="4"/>
         <v>0.24797280000000002</v>
       </c>
-      <c r="J100" s="1">
+      <c r="M100" s="1">
         <v>2.4797280000000002</v>
       </c>
-      <c r="L100" s="1">
+      <c r="O100" s="1">
         <v>2</v>
       </c>
-      <c r="M100" s="1">
+      <c r="P100" s="1">
         <v>2</v>
       </c>
-      <c r="N100" s="1">
+      <c r="Q100" s="1">
         <f t="shared" si="5"/>
         <v>1.5429300000000002E-2</v>
       </c>
-      <c r="O100" s="1">
+      <c r="R100" s="1">
         <v>0.15429300000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>27</v>
+      </c>
       <c r="B101" s="1">
+        <v>31</v>
+      </c>
+      <c r="C101" s="1">
+        <v>11.999999999998408</v>
+      </c>
+      <c r="E101" s="1">
         <v>2</v>
       </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="3"/>
         <v>23.068160800000001</v>
       </c>
-      <c r="E101" s="1">
+      <c r="H101" s="1">
         <v>230.68160800000001</v>
       </c>
-      <c r="G101" s="1">
+      <c r="J101" s="1">
         <v>5</v>
       </c>
-      <c r="H101" s="1">
+      <c r="K101" s="1">
         <v>3</v>
       </c>
-      <c r="I101" s="1">
+      <c r="L101" s="1">
         <f t="shared" si="4"/>
         <v>4.5133300000000001E-2</v>
       </c>
-      <c r="J101" s="1">
+      <c r="M101" s="1">
         <v>0.45133299999999998</v>
       </c>
-      <c r="L101" s="1">
+      <c r="O101" s="1">
         <v>2</v>
       </c>
-      <c r="M101" s="1">
-        <v>0</v>
-      </c>
-      <c r="N101" s="1">
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1">
         <f t="shared" si="5"/>
         <v>0.31376710000000002</v>
       </c>
-      <c r="O101" s="1">
+      <c r="R101" s="1">
         <v>3.1376710000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>27</v>
+      </c>
       <c r="B102" s="1">
+        <v>45</v>
+      </c>
+      <c r="C102" s="1">
+        <v>36.000000000005457</v>
+      </c>
+      <c r="E102" s="1">
         <v>2</v>
       </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="3"/>
         <v>22.9705376</v>
       </c>
-      <c r="E102" s="1">
+      <c r="H102" s="1">
         <v>229.705376</v>
       </c>
-      <c r="G102" s="1">
+      <c r="J102" s="1">
         <v>5</v>
       </c>
-      <c r="H102" s="1">
+      <c r="K102" s="1">
         <v>4</v>
       </c>
-      <c r="I102" s="1">
+      <c r="L102" s="1">
         <f t="shared" si="4"/>
         <v>0.1006174</v>
       </c>
-      <c r="J102" s="1">
+      <c r="M102" s="1">
         <v>1.0061739999999999</v>
       </c>
-      <c r="L102" s="1">
+      <c r="O102" s="1">
         <v>2</v>
       </c>
-      <c r="M102" s="1">
+      <c r="P102" s="1">
         <v>1</v>
       </c>
-      <c r="N102" s="1">
+      <c r="Q102" s="1">
         <f t="shared" si="5"/>
         <v>0.2363287</v>
       </c>
-      <c r="O102" s="1">
+      <c r="R102" s="1">
         <v>2.3632870000000001</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B103" s="1">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E103" s="1">
         <v>2</v>
       </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="3"/>
         <v>23.116739200000001</v>
       </c>
-      <c r="E103" s="1">
+      <c r="H103" s="1">
         <v>231.16739200000001</v>
       </c>
-      <c r="G103" s="1">
+      <c r="J103" s="1">
         <v>5</v>
       </c>
-      <c r="H103" s="1">
+      <c r="K103" s="1">
         <v>5</v>
       </c>
-      <c r="I103" s="1">
+      <c r="L103" s="1">
         <f t="shared" si="4"/>
         <v>0.20558999999999999</v>
       </c>
-      <c r="J103" s="1">
+      <c r="M103" s="1">
         <v>2.0558999999999998</v>
       </c>
-      <c r="L103" s="1">
+      <c r="O103" s="1">
         <v>2</v>
       </c>
-      <c r="M103" s="1">
+      <c r="P103" s="1">
         <v>2</v>
       </c>
-      <c r="N103" s="1">
+      <c r="Q103" s="1">
         <f t="shared" si="5"/>
         <v>5.1264900000000002E-2</v>
       </c>
-      <c r="O103" s="1">
+      <c r="R103" s="1">
         <v>0.51264900000000002</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B104" s="1">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E104" s="1">
         <v>2</v>
       </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="3"/>
         <v>23.0740263</v>
       </c>
-      <c r="E104" s="1">
+      <c r="H104" s="1">
         <v>230.740263</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B105" s="1">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E105" s="1">
         <v>2</v>
       </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="3"/>
         <v>22.631888499999999</v>
       </c>
-      <c r="E105" s="1">
+      <c r="H105" s="1">
         <v>226.31888499999999</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B106" s="1">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E106" s="1">
         <v>2</v>
       </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="3"/>
         <v>22.871871300000002</v>
       </c>
-      <c r="E106" s="1">
+      <c r="H106" s="1">
         <v>228.71871300000001</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B107" s="1">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E107" s="1">
         <v>2</v>
       </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
         <f t="shared" si="3"/>
         <v>22.593336799999999</v>
       </c>
-      <c r="E107" s="1">
+      <c r="H107" s="1">
         <v>225.933368</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B108" s="1">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E108" s="1">
         <v>2</v>
       </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
         <f t="shared" si="3"/>
         <v>21.8955567</v>
       </c>
-      <c r="E108" s="1">
+      <c r="H108" s="1">
         <v>218.955567</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B109" s="1">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E109" s="1">
         <v>2</v>
       </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
         <f t="shared" si="3"/>
         <v>21.0621908</v>
       </c>
-      <c r="E109" s="1">
+      <c r="H109" s="1">
         <v>210.62190799999999</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B110" s="1">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E110" s="1">
         <v>2</v>
       </c>
-      <c r="C110" s="1">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
         <f t="shared" si="3"/>
         <v>21.133353199999998</v>
       </c>
-      <c r="E110" s="1">
+      <c r="H110" s="1">
         <v>211.33353199999999</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="1">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E111" s="1">
         <v>2</v>
       </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
         <f t="shared" si="3"/>
         <v>20.459145899999999</v>
       </c>
-      <c r="E111" s="1">
+      <c r="H111" s="1">
         <v>204.59145899999999</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B112" s="1">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E112" s="1">
         <v>2</v>
       </c>
-      <c r="C112" s="1">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
         <f t="shared" si="3"/>
         <v>19.590910900000001</v>
       </c>
-      <c r="E112" s="1">
+      <c r="H112" s="1">
         <v>195.909109</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="1">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E113" s="1">
         <v>2</v>
       </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
         <f t="shared" si="3"/>
         <v>19.038554099999999</v>
       </c>
-      <c r="E113" s="1">
+      <c r="H113" s="1">
         <v>190.38554099999999</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="1">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E114" s="1">
         <v>2</v>
       </c>
-      <c r="C114" s="1">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
         <f t="shared" si="3"/>
         <v>18.241529100000001</v>
       </c>
-      <c r="E114" s="1">
+      <c r="H114" s="1">
         <v>182.415291</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B115" s="1">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E115" s="1">
         <v>2</v>
       </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
         <f t="shared" si="3"/>
         <v>15.263885699999999</v>
       </c>
-      <c r="E115" s="1">
+      <c r="H115" s="1">
         <v>152.638857</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B116" s="1">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E116" s="1">
         <v>2</v>
       </c>
-      <c r="C116" s="1">
+      <c r="F116" s="1">
         <v>2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="G116" s="1">
         <f t="shared" si="3"/>
         <v>13.764464</v>
       </c>
-      <c r="E116" s="1">
+      <c r="H116" s="1">
         <v>137.64464000000001</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B117" s="1">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E117" s="1">
         <v>2</v>
       </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
         <f t="shared" si="3"/>
         <v>15.989434299999999</v>
       </c>
-      <c r="E117" s="1">
+      <c r="H117" s="1">
         <v>159.89434299999999</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="1">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E118" s="1">
         <v>2</v>
       </c>
-      <c r="C118" s="1">
+      <c r="F118" s="1">
         <v>2</v>
       </c>
-      <c r="D118" s="1">
+      <c r="G118" s="1">
         <f t="shared" si="3"/>
         <v>15.397103100000001</v>
       </c>
-      <c r="E118" s="1">
+      <c r="H118" s="1">
         <v>153.97103100000001</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D119" s="1">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G119" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D120" s="1">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G120" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D121" s="1">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G121" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D122" s="1">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G122" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D123" s="1">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G123" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D124" s="1">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G124" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D125" s="1">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G125" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D126" s="1">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G126" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D127" s="1">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G127" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D128" s="1">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G128" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D129" s="1">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G129" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D130" s="1">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G130" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D131" s="1">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G131" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D132" s="1">
-        <f t="shared" ref="D132:D133" si="6">E132/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D133" s="1">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G132" s="1">
+        <f t="shared" ref="G132:G133" si="6">H132/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G133" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -21033,7 +21723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75983505-C9F0-4F38-970A-790D3E4DA00F}">
   <dimension ref="B3:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
@@ -25220,7 +25910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B751645-BA63-496A-8798-D17512A08B59}">
   <dimension ref="B3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
